--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ35962697" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36231522" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ36520653" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ36793912" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37077668" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37340880" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37587087" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ37835215" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38181280" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ20837374" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ21049838" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ21299856" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ21561037" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ21809169" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ22115737" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ22413402" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ22681308" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ22949014" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3427.451336813332</v>
+        <v>3365.960959972894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03297564942089768</v>
+        <v>0.03687366907781617</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>439.4966041954585</v>
+        <v>233.4546449101116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5563611725560764</v>
+        <v>0.7542595143832623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-330.4477761644652</v>
+        <v>241.6762869141599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6685056776738824</v>
+        <v>0.7484621207171274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.6835772995733</v>
+        <v>-110.0571241271547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8068630267346731</v>
+        <v>0.9256075474049701</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121.2423975736605</v>
+        <v>-152.1027510165131</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9177879378929222</v>
+        <v>0.04677873461655273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.0729295507992</v>
+        <v>-635.525175249887</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08208737727235858</v>
+        <v>0.001228251691315586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-612.7555170306126</v>
+        <v>-35.5770384484283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001778008434605416</v>
+        <v>1.108661830855898e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-36.93450987874122</v>
+        <v>237.5786323410834</v>
       </c>
       <c r="C9" t="n">
-        <v>4.933783972544136e-06</v>
+        <v>0.0928846606302674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>238.2670895374183</v>
+        <v>1047.903031459733</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09081696202838194</v>
+        <v>4.585629809145629e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1026.401507822295</v>
+        <v>-0.05874102790562866</v>
       </c>
       <c r="C11" t="n">
-        <v>7.873366216461713e-08</v>
+        <v>0.1450446720308035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06238744373208855</v>
+        <v>1.320159101608758e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1206308637361119</v>
+        <v>0.835798476994565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.708237723237615e-06</v>
+        <v>11.06806176936045</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9785759508828193</v>
+        <v>0.1102042862975298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.92844630264497</v>
+        <v>5.30086860485253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04624135894094768</v>
+        <v>0.3761278434010181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.474777621923089</v>
+        <v>-2108.475813750828</v>
       </c>
       <c r="C15" t="n">
-        <v>0.279308892876237</v>
+        <v>0.06988320790281026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2380.544663536488</v>
+        <v>-1025.961894241101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04080053220164506</v>
+        <v>0.2188063261758366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1459.000692320743</v>
+        <v>-28464.2251849918</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08494504357238448</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-28306.41209985258</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001455325753459219</v>
+        <v>0.0001409283068595271</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5491.850007859663</v>
+        <v>5349.128502553171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008923995103182332</v>
+        <v>0.001345638506470814</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>599.5573347364291</v>
+        <v>277.452132878674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4289213334777457</v>
+        <v>0.7156236778794433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-627.5760497382792</v>
+        <v>82.82440668927316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4225632909668893</v>
+        <v>0.9143266294478567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-18.83042476240911</v>
+        <v>-585.2965304479715</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9803046868229628</v>
+        <v>0.59245306420361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-619.9665974756226</v>
+        <v>-117.0758954999282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5669742877777257</v>
+        <v>0.1339312193938089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-88.59920988320863</v>
+        <v>-533.5615846909427</v>
       </c>
       <c r="C7" t="n">
-        <v>0.253654005578849</v>
+        <v>0.007693096645671414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-495.8786971415843</v>
+        <v>-40.29516418430808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0124397153802053</v>
+        <v>9.451057504417183e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-43.18238098355484</v>
+        <v>115.3074947441701</v>
       </c>
       <c r="C9" t="n">
-        <v>1.278495484559595e-07</v>
+        <v>0.4239306415159082</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.9786287887629</v>
+        <v>795.1657964600049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4247943549314392</v>
+        <v>7.28793775898675e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>771.2928927153248</v>
+        <v>-0.1457953299740372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001025896168953051</v>
+        <v>0.0004316101405186227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1529517594277836</v>
+        <v>0.0001244806105182545</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001958677170712803</v>
+        <v>0.06283597645823255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001096234185907348</v>
+        <v>0.9717544839608507</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09844144246478442</v>
+        <v>0.8895286395849195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.917180713668625</v>
+        <v>3.897997863482771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4816715302623102</v>
+        <v>0.5187344048739018</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.27104095378489</v>
+        <v>-3661.686148783559</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3789584459781801</v>
+        <v>0.002993382900645289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4084.442439837733</v>
+        <v>-812.121990869991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0008659671790118477</v>
+        <v>0.3486559415256786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1374.590974529752</v>
+        <v>-29385.25334804377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1133811391022271</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-29332.88019848543</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0002461464672204821</v>
+        <v>0.0002753476630388929</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5897.265606190187</v>
+        <v>5850.27225990871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000573022224028231</v>
+        <v>0.000690615770168713</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>882.3723955920503</v>
+        <v>584.6169260414199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2676776075640525</v>
+        <v>0.4634712003311845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-249.9549017181023</v>
+        <v>333.5937555496971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7613489952329093</v>
+        <v>0.6782657362590563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.8632679992032</v>
+        <v>-1040.157438042027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7392531097672403</v>
+        <v>0.3968677533447218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1044.279687772847</v>
+        <v>-44.84732425123592</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3916972582242274</v>
+        <v>0.5843808564586476</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-32.71529238184503</v>
+        <v>-779.021191097972</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6880423138681031</v>
+        <v>0.0002096513703907842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-762.1588951097137</v>
+        <v>-36.36463311778046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002604127728734767</v>
+        <v>1.796761479950764e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.49439351488174</v>
+        <v>287.910592432921</v>
       </c>
       <c r="C9" t="n">
-        <v>5.162569188158354e-06</v>
+        <v>0.05810144536244739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>277.8512737161954</v>
+        <v>1058.080699677677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06557114202074815</v>
+        <v>2.57472733408265e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1051.177243993251</v>
+        <v>-0.08210155223067184</v>
       </c>
       <c r="C11" t="n">
-        <v>2.547786061657472e-07</v>
+        <v>0.05406990875017941</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08128527234618642</v>
+        <v>8.818103912941155e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05479796896865961</v>
+        <v>0.1820236277583876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.570912610000078e-05</v>
+        <v>-5.605426983800591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3185656173331912</v>
+        <v>0.4406310722145277</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.29323837684204</v>
+        <v>-7.820228556457263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8595785437342813</v>
+        <v>0.2229379118811319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.102561488494477</v>
+        <v>-3549.390606801909</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3393933677500014</v>
+        <v>0.003920109005800723</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3899.041626135143</v>
+        <v>-1109.776749655542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001473541292914754</v>
+        <v>0.2083285347401958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1665.075707196348</v>
+        <v>-31348.84174140473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0610868780961824</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-31221.58722104717</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.152273239856321e-05</v>
+        <v>8.545744693769493e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4703.877816554015</v>
+        <v>4498.6178619544</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006287219118473309</v>
+        <v>0.009211670806643566</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>778.2313442355793</v>
+        <v>528.7616585822476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3279313156020693</v>
+        <v>0.5057833199143033</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-145.7979876577693</v>
+        <v>371.1376123454726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8591935431130026</v>
+        <v>0.643233031535251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3198000233741</v>
+        <v>-489.6777802069913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7001468426720256</v>
+        <v>0.6678065126561344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-499.8555712104508</v>
+        <v>-106.4151108394637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6599134290149533</v>
+        <v>0.1911270867386392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-92.78393835409506</v>
+        <v>-714.1914488245607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2529365400598578</v>
+        <v>0.000624900239968115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-665.3192536037909</v>
+        <v>-28.8592405306579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001411208915593475</v>
+        <v>0.0005544908535299539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.1900583048268</v>
+        <v>351.022917397994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001912192083977532</v>
+        <v>0.02864917203099888</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.627010161775</v>
+        <v>1058.936649705267</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02768012790520547</v>
+        <v>5.134925448024842e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1011.138303671652</v>
+        <v>-0.09191347949489705</v>
       </c>
       <c r="C11" t="n">
-        <v>1.547820496926218e-06</v>
+        <v>0.03099162442879942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09259036668750034</v>
+        <v>6.684394453525018e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02906037850767372</v>
+        <v>0.3171785692968104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.973702512588983e-05</v>
+        <v>0.9509535699179921</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4562694096039738</v>
+        <v>0.8978924423325962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.481840046299017</v>
+        <v>-4.146513925919227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6391321859376115</v>
+        <v>0.5390067996814498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.942569108579805</v>
+        <v>-2393.366889116135</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6620024723475</v>
+        <v>0.05531488260405852</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2705.83870085937</v>
+        <v>-1070.720324590863</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03014658036182289</v>
+        <v>0.2319228835985098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1543.530283483648</v>
+        <v>-26982.10605309781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08833069501417727</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-27352.31634598159</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005985205190556574</v>
+        <v>0.0007473893661987739</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5860.698233767851</v>
+        <v>5615.922607532159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004792770108042731</v>
+        <v>0.0009215764897624678</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>759.7321479931757</v>
+        <v>429.6065201387648</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3193707440834814</v>
+        <v>0.5756736927289766</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-590.0407580576336</v>
+        <v>286.8939134736136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4561607244901434</v>
+        <v>0.711176201534935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.4011271140161</v>
+        <v>-626.3609841089382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8262114430629619</v>
+        <v>0.5696722431506495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-644.7137477413099</v>
+        <v>-117.9917819544622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5541973983668469</v>
+        <v>0.1296083541943087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-90.41840898080812</v>
+        <v>-676.2951388272393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2417460562502675</v>
+        <v>0.000953078726329782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-650.1967434941391</v>
+        <v>-30.04720279544197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001327613938451043</v>
+        <v>0.0003380044130414919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-33.9911463056052</v>
+        <v>130.7710385677749</v>
       </c>
       <c r="C9" t="n">
-        <v>4.664612735463651e-05</v>
+        <v>0.3660656785206662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>131.1914785894007</v>
+        <v>1068.238106466653</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3593910276773854</v>
+        <v>8.079693014091979e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1022.129759014972</v>
+        <v>-0.1033333040529242</v>
       </c>
       <c r="C11" t="n">
-        <v>2.163312798765593e-07</v>
+        <v>0.01183201383989768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1042055581834136</v>
+        <v>6.677877527333421e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01030350252984723</v>
+        <v>0.3102722712561559</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.424581646074216e-05</v>
+        <v>1.806812225924554</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7123734223548179</v>
+        <v>0.7951258239617685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.731961759397853</v>
+        <v>-4.724487056325254</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3341560354837672</v>
+        <v>0.4426476712762545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.831116491907538</v>
+        <v>-4287.887643178815</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6426670480414242</v>
+        <v>0.0004006730034398722</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4541.379951269393</v>
+        <v>-1796.653771496048</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001547915134578915</v>
+        <v>0.03960076194131527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2468.771572933074</v>
+        <v>-25925.69889082369</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004888140295733781</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-24148.11184359223</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0030666333075127</v>
+        <v>0.001645343715865452</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5594.619127868285</v>
+        <v>5448.524541204495</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008537982888598656</v>
+        <v>0.001262983784561574</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>898.839744465889</v>
+        <v>593.5773500937255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2407035134029967</v>
+        <v>0.439469078115215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-207.4580780160397</v>
+        <v>285.2031468891864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7926503992740268</v>
+        <v>0.7126347302218081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.3336263956509</v>
+        <v>-696.3972075159767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7893698598767545</v>
+        <v>0.5270863925381183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703.6593272274753</v>
+        <v>-29.70802880818212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5195871395852333</v>
+        <v>0.6986110094738898</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.22446964402255</v>
+        <v>-707.9251650737499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8416963616306452</v>
+        <v>0.0004515247841105464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-674.8585213761469</v>
+        <v>-29.03798899209144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007578503457877134</v>
+        <v>0.000372575045956716</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.5719082091609</v>
+        <v>185.346927738004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001027899309491671</v>
+        <v>0.2035335726929994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>191.3879671215246</v>
+        <v>728.5139078172856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1858366040789862</v>
+        <v>0.0003130446310729248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>694.7848489446895</v>
+        <v>-0.06127158538260205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005369885267532523</v>
+        <v>0.1353845468165388</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06276944496034931</v>
+        <v>2.708660597720189e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1232258508770034</v>
+        <v>0.6788725962741775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.567840634654835e-06</v>
+        <v>-0.6733593874746493</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9441300622795411</v>
+        <v>0.92468183381956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.414816753574244</v>
+        <v>1.516715076588317</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7342323659201113</v>
+        <v>0.8091082024188906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.739320722106179</v>
+        <v>-3760.907412413209</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6605897310162117</v>
+        <v>0.001751816246989149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3951.738031995315</v>
+        <v>-1817.554109340256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009341740624666146</v>
+        <v>0.03766461029595138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2253.229630438169</v>
+        <v>-26085.72285950735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01006751141218962</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-26085.97513133624</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005087910435527577</v>
+        <v>0.0005613644395418629</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5921.022468685866</v>
+        <v>5944.299767717822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001036937942904262</v>
+        <v>0.001092051258705421</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.1390955670317</v>
+        <v>212.6180055041206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5660113934654798</v>
+        <v>0.8171116828646299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-693.0507570729645</v>
+        <v>240.0687262637486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4603219108315747</v>
+        <v>0.7956071611923895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.955642335352</v>
+        <v>-1119.713664001291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8584308333602819</v>
+        <v>0.3959149970217603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1130.66425068078</v>
+        <v>-72.85178579031711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3873182235648002</v>
+        <v>0.3822844342267643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-36.91311713661037</v>
+        <v>-486.0801859712703</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6570645987029415</v>
+        <v>0.02157027187399206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-478.8414223879532</v>
+        <v>-37.97141597774628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02244496686192157</v>
+        <v>1.590029829348337e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.23102812341776</v>
+        <v>56.76294460992321</v>
       </c>
       <c r="C9" t="n">
-        <v>4.25147158139597e-06</v>
+        <v>0.7085884437027643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.60061531025855</v>
+        <v>937.1351050018233</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7318785155115913</v>
+        <v>5.702839741853358e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>938.0161518792163</v>
+        <v>-0.1093580851006513</v>
       </c>
       <c r="C11" t="n">
-        <v>4.66505068674825e-06</v>
+        <v>0.01021036341452951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1157661039214278</v>
+        <v>9.930527155781886e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006152439969175169</v>
+        <v>0.1316202870954075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.75070271013942e-05</v>
+        <v>-1.260011352783014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2367960083086187</v>
+        <v>0.8638171655669883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.27342347897274</v>
+        <v>-0.2716553571941285</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5642209781640999</v>
+        <v>0.965995750943422</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.45971010904365</v>
+        <v>-4422.175895304332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8177154956535901</v>
+        <v>0.0003858584441325532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4834.409534304536</v>
+        <v>-1692.335241506312</v>
       </c>
       <c r="C16" t="n">
-        <v>9.728156107337516e-05</v>
+        <v>0.06015653672952342</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2350.59584149479</v>
+        <v>-30673.26673135663</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009649220382520134</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-30022.96155497479</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001328937546225924</v>
+        <v>0.0001081941007922935</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4835.491178410157</v>
+        <v>4906.998284235458</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009657398816871365</v>
+        <v>0.009221924183737873</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1208.812713621664</v>
+        <v>907.8392396287479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2105406565845478</v>
+        <v>0.3496967866200875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-42.06629465171545</v>
+        <v>743.4014703546682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9660990823863884</v>
+        <v>0.44731618894263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>622.762259763394</v>
+        <v>-193.2166165679532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5209971033467983</v>
+        <v>0.8888647162049761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230.4179436512486</v>
+        <v>-24.01642725074973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8665198941135781</v>
+        <v>0.774872751926734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.473227156730019</v>
+        <v>-682.7617756419327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9859204524401299</v>
+        <v>0.001426367189460273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-668.025613227403</v>
+        <v>-31.78325856016352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001648815356119447</v>
+        <v>0.0002613117686733499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-34.91525488845079</v>
+        <v>140.7796217444195</v>
       </c>
       <c r="C9" t="n">
-        <v>5.668607203749436e-05</v>
+        <v>0.3648298027839596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.4837233697815</v>
+        <v>954.2834535453119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3160007507272945</v>
+        <v>7.306133696148864e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.5398880557051</v>
+        <v>-0.103266876978487</v>
       </c>
       <c r="C11" t="n">
-        <v>6.203381075912495e-06</v>
+        <v>0.0162245471822705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1074061280569275</v>
+        <v>5.80863175453272e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01171402328465894</v>
+        <v>0.3975974299659188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.469897725540499e-05</v>
+        <v>4.404273513102693</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6114748517339901</v>
+        <v>0.5551956017394712</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.561232250974147</v>
+        <v>0.1042461641649268</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2519067770181132</v>
+        <v>0.9884426196342359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.175532484194109</v>
+        <v>-4081.966986649226</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7610208070173232</v>
+        <v>0.001317930678391426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4308.001597352241</v>
+        <v>-2241.683958949222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0006387406391123767</v>
+        <v>0.01728719990973466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2641.078168228864</v>
+        <v>-30317.9811760569</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004926432202327004</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-27899.08177446216</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0008416137634921745</v>
+        <v>0.0003128674532824585</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4353.707298170916</v>
+        <v>4236.368676822472</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01893210551208637</v>
+        <v>0.02443034508435456</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184.043432171573</v>
+        <v>-161.2890478174619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8551432971575947</v>
+        <v>0.8744968169592915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1326.299018155601</v>
+        <v>-83.26868465970216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1978011824165797</v>
+        <v>0.9354533978126276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-256.9972332013103</v>
+        <v>-1046.999687885616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7998304679923572</v>
+        <v>0.4171133480026011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1107.553049246883</v>
+        <v>-71.39354240439202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3836508339751793</v>
+        <v>0.3682450529399883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.35169175904598</v>
+        <v>-793.4371509376535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6522641560678446</v>
+        <v>0.0001027776964294664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-759.169558728233</v>
+        <v>-26.94521777416928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001626559268091598</v>
+        <v>0.001113969759926302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-30.36997538045333</v>
+        <v>422.2693396540243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002034415018700359</v>
+        <v>0.004046697439039407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>440.4904754606364</v>
+        <v>1048.070017847687</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002351365159129755</v>
+        <v>1.878808364234321e-07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1036.6582236177</v>
+        <v>-0.07729967600167534</v>
       </c>
       <c r="C11" t="n">
-        <v>1.686976535407556e-07</v>
+        <v>0.06167735509582199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08861648436081415</v>
+        <v>6.739373414248683e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0299575031481902</v>
+        <v>0.3122107454650849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.574374793989388e-05</v>
+        <v>-1.230517088802156</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4870438651278812</v>
+        <v>0.8658418697415887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.254368593429457</v>
+        <v>-1.507272330718672</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5573119064759477</v>
+        <v>0.8264184487893071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2483409648925008</v>
+        <v>-2696.07855821297</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9707622851891109</v>
+        <v>0.02545531837714374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3120.270055338284</v>
+        <v>-247.4090621087116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0088553600714045</v>
+        <v>0.7804184593798239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-859.2845004377059</v>
+        <v>-24232.11084501407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3299609219967975</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-24406.8662388059</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.001163944125457039</v>
+        <v>0.00148759920555563</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ20837374" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ21049838" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ21299856" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ21561037" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ21809169" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ22115737" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ22413402" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ22681308" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ22949014" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36617840" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ36810875" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37018923" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37265109" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37550608" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37768928" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37985807" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38194627" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38403658" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3365.960959972894</v>
+        <v>2715.841219385058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03687366907781617</v>
+        <v>0.06854210106780252</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233.4546449101116</v>
+        <v>219.5877497699035</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7542595143832623</v>
+        <v>0.7257502784960645</v>
       </c>
     </row>
     <row r="4">
@@ -492,179 +492,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.6762869141599</v>
+        <v>82.11211830815461</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7484621207171274</v>
+        <v>0.8976291998911994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-110.0571241271547</v>
+        <v>172.8954440701366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9256075474049701</v>
+        <v>0.6691245695825123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152.1027510165131</v>
+        <v>946.8755038652433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04677873461655273</v>
+        <v>2.522828626070024e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-635.525175249887</v>
+        <v>-168.0460852411122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001228251691315586</v>
+        <v>0.02650359996806148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-35.5770384484283</v>
+        <v>-683.48767652781</v>
       </c>
       <c r="C8" t="n">
-        <v>1.108661830855898e-05</v>
+        <v>0.0004479219051175167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>237.5786323410834</v>
+        <v>-38.51177672916974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0928846606302674</v>
+        <v>1.941470014790116e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1047.903031459733</v>
+        <v>216.6674726253407</v>
       </c>
       <c r="C10" t="n">
-        <v>4.585629809145629e-08</v>
+        <v>0.120958726229758</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05874102790562866</v>
+        <v>1054.355626804869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1450446720308035</v>
+        <v>4.988876711796763e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.320159101608758e-05</v>
+        <v>-0.06183568609027047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.835798476994565</v>
+        <v>0.1228522694204026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.06806176936045</v>
+        <v>3.204675289236523e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1102042862975298</v>
+        <v>0.6125043669286545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.30086860485253</v>
+        <v>7.668367695541238</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3761278434010181</v>
+        <v>0.2663934756583665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2108.475813750828</v>
+        <v>4.146474871955471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06988320790281026</v>
+        <v>0.4854673443408054</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1025.961894241101</v>
+        <v>-2496.476954519794</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2188063261758366</v>
+        <v>0.03036106387934273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-939.4277860123331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.256713900231927</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-28464.2251849918</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0001409283068595271</v>
+      <c r="B18" t="n">
+        <v>-27910.05702862174</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001845598270806044</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5349.128502553171</v>
+        <v>4452.333273516117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001345638506470814</v>
+        <v>0.004044476864630292</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277.452132878674</v>
+        <v>434.8776496451833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7156236778794433</v>
+        <v>0.4698599289296087</v>
       </c>
     </row>
     <row r="4">
@@ -736,179 +749,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.82440668927316</v>
+        <v>124.219048136492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9143266294478567</v>
+        <v>0.8401641773086249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-585.2965304479715</v>
+        <v>422.1877308724762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59245306420361</v>
+        <v>0.3082939740374697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117.0758954999282</v>
+        <v>737.6166217982616</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1339312193938089</v>
+        <v>0.001454908204256878</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-533.5615846909427</v>
+        <v>-118.821157017192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007693096645671414</v>
+        <v>0.1261181510063274</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-40.29516418430808</v>
+        <v>-532.9502347698415</v>
       </c>
       <c r="C8" t="n">
-        <v>9.451057504417183e-07</v>
+        <v>0.007512893072559833</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.3074947441701</v>
+        <v>-41.55926844708416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4239306415159082</v>
+        <v>5.062547346208544e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.1657964600049</v>
+        <v>112.8769839310628</v>
       </c>
       <c r="C10" t="n">
-        <v>7.28793775898675e-05</v>
+        <v>0.4324416517583136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1457953299740372</v>
+        <v>786.6854911374685</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004316101405186227</v>
+        <v>0.0001007095241111753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001244806105182545</v>
+        <v>-0.1421368732799598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06283597645823255</v>
+        <v>0.0006018303934195049</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9717544839608507</v>
+        <v>0.00012773116994051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8895286395849195</v>
+        <v>0.05612881381773333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.897997863482771</v>
+        <v>-1.045933741472256</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5187344048739018</v>
+        <v>0.881157316969879</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3661.686148783559</v>
+        <v>3.322969618765872</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002993382900645289</v>
+        <v>0.5818790753579953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-812.121990869991</v>
+        <v>-3854.314914764518</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3486559415256786</v>
+        <v>0.001900359224763637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-768.0010394767539</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3767958317208601</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-29385.25334804377</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0002753476630388929</v>
+      <c r="B18" t="n">
+        <v>-29335.109491574</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0003093212725706845</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5850.27225990871</v>
+        <v>4689.849253596496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000690615770168713</v>
+        <v>0.003218852103138014</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>584.6169260414199</v>
+        <v>815.886096788479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4634712003311845</v>
+        <v>0.1950440749321807</v>
       </c>
     </row>
     <row r="4">
@@ -980,179 +1006,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.5937555496971</v>
+        <v>461.3503316292825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6782657362590563</v>
+        <v>0.4714282084455746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1040.157438042027</v>
+        <v>394.457981061469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3968677533447218</v>
+        <v>0.3744136619178445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44.84732425123592</v>
+        <v>877.7491900222648</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5843808564586476</v>
+        <v>0.000228413775069908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-779.021191097972</v>
+        <v>-66.41522466736943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002096513703907842</v>
+        <v>0.411822158285102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.36463311778046</v>
+        <v>-818.5236996679886</v>
       </c>
       <c r="C8" t="n">
-        <v>1.796761479950764e-05</v>
+        <v>9.146985846993392e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>287.910592432921</v>
+        <v>-38.3080310732545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05810144536244739</v>
+        <v>6.969435715808551e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1058.080699677677</v>
+        <v>258.5662019397041</v>
       </c>
       <c r="C10" t="n">
-        <v>2.57472733408265e-07</v>
+        <v>0.08719556803261523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.08210155223067184</v>
+        <v>1055.035906130604</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05406990875017941</v>
+        <v>3.540154324665662e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.818103912941155e-05</v>
+        <v>-0.07555708052464158</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1820236277583876</v>
+        <v>0.07500151473812663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.605426983800591</v>
+        <v>8.713374696459461e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4406310722145277</v>
+        <v>0.1851947421904297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.820228556457263</v>
+        <v>-7.300653494529947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2229379118811319</v>
+        <v>0.3132320099199234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3549.390606801909</v>
+        <v>-8.196177878086059</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003920109005800723</v>
+        <v>0.2008515525994616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1109.776749655542</v>
+        <v>-3822.617764479127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2083285347401958</v>
+        <v>0.001911698525497154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1119.623982908918</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2032654340199758</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-31348.84174140473</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8.545744693769493e-05</v>
+      <c r="B18" t="n">
+        <v>-31529.32621241899</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.00637088083201e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4498.6178619544</v>
+        <v>3359.38971471777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009211670806643566</v>
+        <v>0.03446453728511226</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.7616585822476</v>
+        <v>584.3272978330539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5057833199143033</v>
+        <v>0.349911945074467</v>
       </c>
     </row>
     <row r="4">
@@ -1224,179 +1263,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.1376123454726</v>
+        <v>327.7245048926983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.643233031535251</v>
+        <v>0.6064656728093022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-489.6777802069913</v>
+        <v>597.0627261411616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6678065126561344</v>
+        <v>0.163218700015776</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106.4151108394637</v>
+        <v>953.7023185460638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1911270867386392</v>
+        <v>6.494061455838743e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-714.1914488245607</v>
+        <v>-121.0577957267581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000624900239968115</v>
+        <v>0.1329009381989483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-28.8592405306579</v>
+        <v>-726.001894199482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0005544908535299539</v>
+        <v>0.0004634021959619517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>351.022917397994</v>
+        <v>-31.23618915903488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02864917203099888</v>
+        <v>0.0001970355445674562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1058.936649705267</v>
+        <v>354.4394093599906</v>
       </c>
       <c r="C10" t="n">
-        <v>5.134925448024842e-07</v>
+        <v>0.02552230900703278</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.09191347949489705</v>
+        <v>1079.602538324566</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03099162442879942</v>
+        <v>4.964436928004669e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.684394453525018e-05</v>
+        <v>-0.08391112912935653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3171785692968104</v>
+        <v>0.04842315102494184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9509535699179921</v>
+        <v>6.985999789337432e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8978924423325962</v>
+        <v>0.2942133173893754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.146513925919227</v>
+        <v>-1.196098050672927</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5390067996814498</v>
+        <v>0.871171920370568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2393.366889116135</v>
+        <v>-5.188510485558756</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05531488260405852</v>
+        <v>0.4426509476289019</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1070.720324590863</v>
+        <v>-2422.399842412054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2319228835985098</v>
+        <v>0.05052771964281333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-955.9732510191833</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2826704820826229</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-26982.10605309781</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0007473893661987739</v>
+      <c r="B18" t="n">
+        <v>-28155.20409452782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0004420491950963629</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5615.922607532159</v>
+        <v>4671.21091041638</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009215764897624678</v>
+        <v>0.002690426620903668</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.6065201387648</v>
+        <v>521.2893679742473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5756736927289766</v>
+        <v>0.389384003919403</v>
       </c>
     </row>
     <row r="4">
@@ -1468,179 +1520,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.8939134736136</v>
+        <v>260.4234880353775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.711176201534935</v>
+        <v>0.6735942967494046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-626.3609841089382</v>
+        <v>506.2260221954908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5696722431506495</v>
+        <v>0.2234541297689116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117.9917819544622</v>
+        <v>917.7139090229598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1296083541943087</v>
+        <v>7.824270640201056e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-676.2951388272393</v>
+        <v>-132.0107749306288</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000953078726329782</v>
+        <v>0.08646074323736219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.04720279544197</v>
+        <v>-682.6888543709424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003380044130414919</v>
+        <v>0.0007861359361538232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.7710385677749</v>
+        <v>-32.99671864901073</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3660656785206662</v>
+        <v>7.84521543484863e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1068.238106466653</v>
+        <v>119.9688052020179</v>
       </c>
       <c r="C10" t="n">
-        <v>8.079693014091979e-08</v>
+        <v>0.4033166242634377</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1033333040529242</v>
+        <v>1041.17800231079</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01183201383989768</v>
+        <v>1.903220569174998e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.677877527333421e-05</v>
+        <v>-0.09769676295781808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3102722712561559</v>
+        <v>0.01689201874278789</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.806812225924554</v>
+        <v>6.7016197151004e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7951258239617685</v>
+        <v>0.3055165795938323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.724487056325254</v>
+        <v>-0.5562450814120348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4426476712762545</v>
+        <v>0.9360380481407135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4287.887643178815</v>
+        <v>-5.039887303225607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004006730034398722</v>
+        <v>0.4101535022045162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1796.653771496048</v>
+        <v>-4408.922967596713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03960076194131527</v>
+        <v>0.0002552869931409929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1722.720481996346</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04809343755144854</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-25925.69889082369</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.001645343715865452</v>
+      <c r="B18" t="n">
+        <v>-26555.16212133061</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001194749057833377</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5448.524541204495</v>
+        <v>4242.8016632363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001262983784561574</v>
+        <v>0.006919433022176037</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.5773500937255</v>
+        <v>792.465475673499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.439469078115215</v>
+        <v>0.191767096870175</v>
       </c>
     </row>
     <row r="4">
@@ -1712,179 +1777,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.2031468891864</v>
+        <v>376.5799748032662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7126347302218081</v>
+        <v>0.5422714563424744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-696.3972075159767</v>
+        <v>382.5909497056414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5270863925381183</v>
+        <v>0.3507254308074114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29.70802880818212</v>
+        <v>800.176000230126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6986110094738898</v>
+        <v>0.0005614285028533749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-707.9251650737499</v>
+        <v>-41.38228157002206</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004515247841105464</v>
+        <v>0.5873677435641789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.03798899209144</v>
+        <v>-717.1782323979858</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000372575045956716</v>
+        <v>0.0003570025048014208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.346927738004</v>
+        <v>-32.24107315075639</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2035335726929994</v>
+        <v>9.339736363824734e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.5139078172856</v>
+        <v>175.3394382300082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003130446310729248</v>
+        <v>0.2268410083014025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.06127158538260205</v>
+        <v>725.6623673776905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1353845468165388</v>
+        <v>0.0003623944048624064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.708660597720189e-05</v>
+        <v>-0.05261953527158203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6788725962741775</v>
+        <v>0.1996999895723852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.6733593874746493</v>
+        <v>1.680098721046306e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.92468183381956</v>
+        <v>0.7967364646695186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.516715076588317</v>
+        <v>-1.460554006902401</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8091082024188906</v>
+        <v>0.8367001627933324</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3760.907412413209</v>
+        <v>1.793847115608253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001751816246989149</v>
+        <v>0.7742556512318041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1817.554109340256</v>
+        <v>-3731.493105679354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03766461029595138</v>
+        <v>0.001823768400394144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1788.311723065366</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04025304799283676</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-26085.72285950735</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005613644395418629</v>
+      <c r="B18" t="n">
+        <v>-26219.13500312821</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0005422939032931548</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5944.299767717822</v>
+        <v>4962.980816883394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001092051258705421</v>
+        <v>0.002842071588543387</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.6180055041206</v>
+        <v>495.2956315942153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8171116828646299</v>
+        <v>0.4931816327454269</v>
       </c>
     </row>
     <row r="4">
@@ -1956,179 +2034,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240.0687262637486</v>
+        <v>389.3778358596745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7956071611923895</v>
+        <v>0.5977683892991752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1119.713664001291</v>
+        <v>652.8996112775787</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3959149970217603</v>
+        <v>0.1292011569763684</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72.85178579031711</v>
+        <v>930.2518225766573</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3822844342267643</v>
+        <v>9.211709383936077e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-486.0801859712703</v>
+        <v>-91.51532936996604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02157027187399206</v>
+        <v>0.2680270501192397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.97141597774628</v>
+        <v>-515.1523799399816</v>
       </c>
       <c r="C8" t="n">
-        <v>1.590029829348337e-05</v>
+        <v>0.01435774531302008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.76294460992321</v>
+        <v>-40.43789832458013</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7085884437027643</v>
+        <v>4.473932503050653e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>937.1351050018233</v>
+        <v>57.98612410515805</v>
       </c>
       <c r="C10" t="n">
-        <v>5.702839741853358e-06</v>
+        <v>0.7005478172844928</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1093580851006513</v>
+        <v>906.085561793396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01021036341452951</v>
+        <v>1.356737477247594e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.930527155781886e-05</v>
+        <v>-0.09813709208834565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1316202870954075</v>
+        <v>0.02087287638310142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.260011352783014</v>
+        <v>9.281118201124752e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8638171655669883</v>
+        <v>0.1566609008709963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2716553571941285</v>
+        <v>-3.421962847293326</v>
       </c>
       <c r="C14" t="n">
-        <v>0.965995750943422</v>
+        <v>0.639921483172607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4422.175895304332</v>
+        <v>-0.7530023151577332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0003858584441325532</v>
+        <v>0.9054165272448096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1692.335241506312</v>
+        <v>-4440.210240615064</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06015653672952342</v>
+        <v>0.0003431583323692129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1584.798848789096</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07732886522521475</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-30673.26673135663</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0001081941007922935</v>
+      <c r="B18" t="n">
+        <v>-31648.41922577326</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.583747646778345e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4906.998284235458</v>
+        <v>3822.736676854227</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009221924183737873</v>
+        <v>0.02655414521461952</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>907.8392396287479</v>
+        <v>960.5421307069278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3496967866200875</v>
+        <v>0.206292869192932</v>
       </c>
     </row>
     <row r="4">
@@ -2200,179 +2291,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>743.4014703546682</v>
+        <v>617.1860329810362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.44731618894263</v>
+        <v>0.4231581016218163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-193.2166165679532</v>
+        <v>943.3771530982119</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8888647162049761</v>
+        <v>0.03384708579186482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24.01642725074973</v>
+        <v>1174.625393212142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.774872751926734</v>
+        <v>8.281654570678679e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-682.7617756419327</v>
+        <v>-31.61219568609138</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001426367189460273</v>
+        <v>0.7033486154176545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.78325856016352</v>
+        <v>-703.2277713224464</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002613117686733499</v>
+        <v>0.0008842816381013924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140.7796217444195</v>
+        <v>-33.66422885686025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3648298027839596</v>
+        <v>0.0001093693092427574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>954.2834535453119</v>
+        <v>132.7078038290874</v>
       </c>
       <c r="C10" t="n">
-        <v>7.306133696148864e-06</v>
+        <v>0.385517022913312</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.103266876978487</v>
+        <v>907.8376083280745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0162245471822705</v>
+        <v>2.13995671600076e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.80863175453272e-05</v>
+        <v>-0.0915063611569442</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3975974299659188</v>
+        <v>0.03147078963508634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.404273513102693</v>
+        <v>5.232547463147592e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5551956017394712</v>
+        <v>0.4410899280020077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1042461641649268</v>
+        <v>1.998200777242848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9884426196342359</v>
+        <v>0.7867771781872278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4081.966986649226</v>
+        <v>0.01022360504390463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001317930678391426</v>
+        <v>0.9988549003981468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2241.683958949222</v>
+        <v>-4217.907448160797</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01728719990973466</v>
+        <v>0.0007624741409294171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2212.191571123537</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01746653571375187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-30317.9811760569</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0003128674532824585</v>
+      <c r="B18" t="n">
+        <v>-31492.03483509379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0001718234738765433</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4236.368676822472</v>
+        <v>2901.293528492598</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02443034508435456</v>
+        <v>0.07957173186246576</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-161.2890478174619</v>
+        <v>252.7898357387135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8744968169592915</v>
+        <v>0.720122181661415</v>
       </c>
     </row>
     <row r="4">
@@ -2444,179 +2548,192 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-83.26868465970216</v>
+        <v>216.4334760920319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9354533978126276</v>
+        <v>0.7634741202813863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1046.999687885616</v>
+        <v>804.3348456525291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4171133480026011</v>
+        <v>0.06025806532948518</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71.39354240439202</v>
+        <v>906.3689943367025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3682450529399883</v>
+        <v>8.328470340754224e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-793.4371509376535</v>
+        <v>-81.68452732076152</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001027776964294664</v>
+        <v>0.3010643664940685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-26.94521777416928</v>
+        <v>-803.4547690357266</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001113969759926302</v>
+        <v>7.686442511498063e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>422.2693396540243</v>
+        <v>-29.59957234588788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004046697439039407</v>
+        <v>0.0003788282407149455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1048.070017847687</v>
+        <v>423.2586860640771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.878808364234321e-07</v>
+        <v>0.003708891127237658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.07729967600167534</v>
+        <v>996.1490162916715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06167735509582199</v>
+        <v>1.044918453697524e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.739373414248683e-05</v>
+        <v>-0.0724475104747998</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3122107454650849</v>
+        <v>0.07848717046009479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.230517088802156</v>
+        <v>6.95550521038639e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8658418697415887</v>
+        <v>0.2944868276686571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.507272330718672</v>
+        <v>-3.571132325346639</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8264184487893071</v>
+        <v>0.6225279357649889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2696.07855821297</v>
+        <v>-2.551020895223561</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02545531837714374</v>
+        <v>0.709658215591245</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-247.4090621087116</v>
+        <v>-2748.898458074299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7804184593798239</v>
+        <v>0.02238433103955315</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-126.5223546360741</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8860989340837757</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-24232.11084501407</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.00148759920555563</v>
+      <c r="B18" t="n">
+        <v>-26516.78421244942</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0005195803687243674</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ36617840" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ36810875" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37018923" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37265109" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37550608" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37768928" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37985807" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ38194627" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38403658" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ37580749" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ37747146" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37960098" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ38146082" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ38326798" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ38519588" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ38704535" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38885666" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ39063394" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2715.841219385058</v>
+        <v>1887.076399315999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06854210106780252</v>
+        <v>0.2591519966659148</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>219.5877497699035</v>
+        <v>716.9934329602578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7257502784960645</v>
+        <v>0.2813120549531731</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.11211830815461</v>
+        <v>377.9107978501925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8976291998911994</v>
+        <v>0.5786259749416818</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.8954440701366</v>
+        <v>387.6095167580343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6691245695825123</v>
+        <v>0.3817942243577327</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>946.8755038652433</v>
+        <v>844.4366366547495</v>
       </c>
       <c r="C6" t="n">
-        <v>2.522828626070024e-05</v>
+        <v>0.0005427242917658638</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-168.0460852411122</v>
+        <v>-51.79424635976078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02650359996806148</v>
+        <v>0.5164009644247969</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-683.48767652781</v>
+        <v>-818.5791818343508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004479219051175167</v>
+        <v>0.0001371926371625914</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.51177672916974</v>
+        <v>-29.15624923596033</v>
       </c>
       <c r="C9" t="n">
-        <v>1.941470014790116e-06</v>
+        <v>0.001387342423736429</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6674726253407</v>
+        <v>136.0159471295808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.120958726229758</v>
+        <v>0.3750932781155494</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1054.355626804869</v>
+        <v>1236.471637949332</v>
       </c>
       <c r="C11" t="n">
-        <v>4.988876711796763e-08</v>
+        <v>1.25725780415151e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06183568609027047</v>
+        <v>-0.03029194166707573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1228522694204026</v>
+        <v>0.47989010462555</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.204675289236523e-05</v>
+        <v>1.630670411263345e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6125043669286545</v>
+        <v>0.9808612450549588</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.668367695541238</v>
+        <v>4.455676059476531</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2663934756583665</v>
+        <v>0.5919194165676636</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.146474871955471</v>
+        <v>2.509163482837627</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4854673443408054</v>
+        <v>0.69747736615137</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2496.476954519794</v>
+        <v>-3957.057412735034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03036106387934273</v>
+        <v>0.001379908339395141</v>
       </c>
     </row>
     <row r="17">
@@ -661,23 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-939.4277860123331</v>
+        <v>-1333.229494313132</v>
       </c>
       <c r="C17" t="n">
-        <v>0.256713900231927</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-27910.05702862174</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001845598270806044</v>
+        <v>0.1756401565497454</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4452.333273516117</v>
+        <v>2022.910597891494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004044476864630292</v>
+        <v>0.2321065120284137</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>434.8776496451833</v>
+        <v>525.6718940342741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4698599289296087</v>
+        <v>0.4519451235394001</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124.219048136492</v>
+        <v>301.6435004059463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8401641773086249</v>
+        <v>0.6710518557034426</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.1877308724762</v>
+        <v>502.5153590934025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3082939740374697</v>
+        <v>0.2492915072406125</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.6166217982616</v>
+        <v>1124.015258698798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001454908204256878</v>
+        <v>6.674216348235477e-06</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-118.821157017192</v>
+        <v>-146.9632460782468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1261181510063274</v>
+        <v>0.07895511500056517</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-532.9502347698415</v>
+        <v>-782.0625324620739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007512893072559833</v>
+        <v>0.0003504381512523673</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.55926844708416</v>
+        <v>-42.19372660013345</v>
       </c>
       <c r="C9" t="n">
-        <v>5.062547346208544e-07</v>
+        <v>2.300952720922723e-06</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.8769839310628</v>
+        <v>108.2067920686621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4324416517583136</v>
+        <v>0.4824075463814126</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>786.6854911374685</v>
+        <v>1226.46800911943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001007095241111753</v>
+        <v>2.532440588788016e-07</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1421368732799598</v>
+        <v>-0.07461693521335651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006018303934195049</v>
+        <v>0.09229972237325634</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00012773116994051</v>
+        <v>4.652423981048803e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05612881381773333</v>
+        <v>0.4945890395603255</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.045933741472256</v>
+        <v>5.717128806863771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.881157316969879</v>
+        <v>0.4742799797564262</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.322969618765872</v>
+        <v>6.722810915872626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5818790753579953</v>
+        <v>0.3265281375213474</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3854.314914764518</v>
+        <v>-3839.579295292763</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001900359224763637</v>
+        <v>0.001916945440639146</v>
       </c>
     </row>
     <row r="17">
@@ -918,23 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-768.0010394767539</v>
+        <v>-622.5810311717652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3767958317208601</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-29335.109491574</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0003093212725706845</v>
+        <v>0.5321450566296256</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4689.849253596496</v>
+        <v>3121.499574769702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003218852103138014</v>
+        <v>0.07347923396441682</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>815.886096788479</v>
+        <v>914.380642642357</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1950440749321807</v>
+        <v>0.1652654094062759</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3503316292825</v>
+        <v>728.7837874124583</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4714282084455746</v>
+        <v>0.2790023171209406</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>394.457981061469</v>
+        <v>767.6044808761309</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3744136619178445</v>
+        <v>0.08722174831070206</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.7491900222648</v>
+        <v>879.5088813738198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000228413775069908</v>
+        <v>0.0005257788939952709</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-66.41522466736943</v>
+        <v>-90.59703278545852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.411822158285102</v>
+        <v>0.277799386481919</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-818.5236996679886</v>
+        <v>-775.856314708156</v>
       </c>
       <c r="C8" t="n">
-        <v>9.146985846993392e-05</v>
+        <v>0.000424803149045668</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.3080310732545</v>
+        <v>-30.99725464891231</v>
       </c>
       <c r="C9" t="n">
-        <v>6.969435715808551e-06</v>
+        <v>0.0005674959106799589</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258.5662019397041</v>
+        <v>-13.76684410638933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08719556803261523</v>
+        <v>0.9290999991819743</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1055.035906130604</v>
+        <v>954.1386205150084</v>
       </c>
       <c r="C11" t="n">
-        <v>3.540154324665662e-07</v>
+        <v>7.745164006521319e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07555708052464158</v>
+        <v>-0.0280185148208076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07500151473812663</v>
+        <v>0.5305674209620501</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.713374696459461e-05</v>
+        <v>-1.885284333635751e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1851947421904297</v>
+        <v>0.9782171483406055</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.300653494529947</v>
+        <v>1.948584848292763</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3132320099199234</v>
+        <v>0.8136393086527118</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.196177878086059</v>
+        <v>7.07128694642326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2008515525994616</v>
+        <v>0.3184759971530294</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3822.617764479127</v>
+        <v>-5189.0790987173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001911698525497154</v>
+        <v>2.73430102454067e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1175,23 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1119.623982908918</v>
+        <v>-2112.239404669611</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2032654340199758</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-31529.32621241899</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8.00637088083201e-05</v>
+        <v>0.03573046569635523</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3359.38971471777</v>
+        <v>4594.663443975256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03446453728511226</v>
+        <v>0.008003493771239822</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>584.3272978330539</v>
+        <v>185.4672284860405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.349911945074467</v>
+        <v>0.7811423163720852</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327.7245048926983</v>
+        <v>-132.2708367675852</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6064656728093022</v>
+        <v>0.8467331934062996</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>597.0627261411616</v>
+        <v>137.8909569912755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.163218700015776</v>
+        <v>0.7579743142110407</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>953.7023185460638</v>
+        <v>987.9798104931766</v>
       </c>
       <c r="C6" t="n">
-        <v>6.494061455838743e-05</v>
+        <v>0.0001172377386077064</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-121.0577957267581</v>
+        <v>-42.62827427409229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1329009381989483</v>
+        <v>0.6044710968732785</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-726.001894199482</v>
+        <v>-667.7496814885289</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004634021959619517</v>
+        <v>0.002116668718144198</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.23618915903488</v>
+        <v>-41.39170836977861</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001970355445674562</v>
+        <v>5.947460956363179e-06</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>354.4394093599906</v>
+        <v>29.56626101631143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02552230900703278</v>
+        <v>0.8510711406949614</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.602538324566</v>
+        <v>1076.541219415109</v>
       </c>
       <c r="C11" t="n">
-        <v>4.964436928004669e-07</v>
+        <v>9.253443047306502e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08391112912935653</v>
+        <v>-0.1194607693730892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04842315102494184</v>
+        <v>0.008461005308037072</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.985999789337432e-05</v>
+        <v>0.0001183053512679117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2942133173893754</v>
+        <v>0.09143106252846497</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.196098050672927</v>
+        <v>-3.098214893938914</v>
       </c>
       <c r="C14" t="n">
-        <v>0.871171920370568</v>
+        <v>0.7168769338563457</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.188510485558756</v>
+        <v>1.525749394451781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4426509476289019</v>
+        <v>0.8215140733243109</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2422.399842412054</v>
+        <v>-6070.850453469458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05052771964281333</v>
+        <v>1.202923653889327e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1432,23 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-955.9732510191833</v>
+        <v>-1762.965370472525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2826704820826229</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-28155.20409452782</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0004420491950963629</v>
+        <v>0.07449584248613755</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4671.21091041638</v>
+        <v>3635.540451877402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002690426620903668</v>
+        <v>0.03851169455271777</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.2893679742473</v>
+        <v>747.0894303261393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.389384003919403</v>
+        <v>0.282306037649085</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>260.4234880353775</v>
+        <v>216.4964526809698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6735942967494046</v>
+        <v>0.7593111729123405</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.2260221954908</v>
+        <v>-119.2770105558573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2234541297689116</v>
+        <v>0.7848755416853973</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>917.7139090229598</v>
+        <v>909.8888900323545</v>
       </c>
       <c r="C6" t="n">
-        <v>7.824270640201056e-05</v>
+        <v>0.0003117951194343855</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-132.0107749306288</v>
+        <v>-16.51160179890864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08646074323736219</v>
+        <v>0.8414357829264689</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-682.6888543709424</v>
+        <v>-689.7863936609872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007861359361538232</v>
+        <v>0.001625024516456921</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.99671864901073</v>
+        <v>-33.42616779588106</v>
       </c>
       <c r="C9" t="n">
-        <v>7.84521543484863e-05</v>
+        <v>0.0001942960367603981</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.9688052020179</v>
+        <v>78.82500519593792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4033166242634377</v>
+        <v>0.6116563870135485</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1041.17800231079</v>
+        <v>1282.983192320059</v>
       </c>
       <c r="C11" t="n">
-        <v>1.903220569174998e-07</v>
+        <v>1.636907743047488e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09769676295781808</v>
+        <v>-0.05425561120713899</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01689201874278789</v>
+        <v>0.2202730211493982</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.7016197151004e-05</v>
+        <v>6.474819614821673e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3055165795938323</v>
+        <v>0.3445115098204818</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.5562450814120348</v>
+        <v>1.51369580248458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9360380481407135</v>
+        <v>0.8570709976611663</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.039887303225607</v>
+        <v>-3.581289613150859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4101535022045162</v>
+        <v>0.6110098646208562</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4408.922967596713</v>
+        <v>-5655.665563586139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002552869931409929</v>
+        <v>5.002513921910695e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1689,23 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1722.720481996346</v>
+        <v>-2459.451662409867</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04809343755144854</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-26555.16212133061</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.001194749057833377</v>
+        <v>0.01458071122228827</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4242.8016632363</v>
+        <v>1417.912122320809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006919433022176037</v>
+        <v>0.3797615833286292</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792.465475673499</v>
+        <v>348.9741854691111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191767096870175</v>
+        <v>0.5666082142479572</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>376.5799748032662</v>
+        <v>178.8032359586205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5422714563424744</v>
+        <v>0.7749887541035663</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.5909497056414</v>
+        <v>-104.6281555713707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3507254308074114</v>
+        <v>0.803535114071331</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800.176000230126</v>
+        <v>767.2193269166141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005614285028533749</v>
+        <v>0.00147798236752173</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-41.38228157002206</v>
+        <v>-54.1287716755931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5873677435641789</v>
+        <v>0.5033847268930176</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-717.1782323979858</v>
+        <v>-666.6792853637207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003570025048014208</v>
+        <v>0.00127064535216902</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.24107315075639</v>
+        <v>-32.13946550359287</v>
       </c>
       <c r="C9" t="n">
-        <v>9.339736363824734e-05</v>
+        <v>0.0001560402594369884</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.3394382300082</v>
+        <v>199.242308972637</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2268410083014025</v>
+        <v>0.1751173368851326</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>725.6623673776905</v>
+        <v>1584.026301373393</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003623944048624064</v>
+        <v>6.305576493597704e-12</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05261953527158203</v>
+        <v>-0.09496774327328097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1996999895723852</v>
+        <v>0.0263912241492561</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.680098721046306e-05</v>
+        <v>6.368135463316265e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7967364646695186</v>
+        <v>0.3165954301208457</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.460554006902401</v>
+        <v>14.26009276086841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8367001627933324</v>
+        <v>0.06555532871093239</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.793847115608253</v>
+        <v>-0.8543034458262273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7742556512318041</v>
+        <v>0.8901189619926713</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3731.493105679354</v>
+        <v>-3799.021257118529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001823768400394144</v>
+        <v>0.001298608759016812</v>
       </c>
     </row>
     <row r="17">
@@ -1946,23 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1788.311723065366</v>
+        <v>-2019.798928532319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04025304799283676</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-26219.13500312821</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005422939032931548</v>
+        <v>0.03548568365413983</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4962.980816883394</v>
+        <v>2718.355979685718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002842071588543387</v>
+        <v>0.09200905008005963</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>495.2956315942153</v>
+        <v>630.8187405791512</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4931816327454269</v>
+        <v>0.3092472705868795</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>389.3778358596745</v>
+        <v>404.0020291125145</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5977683892991752</v>
+        <v>0.5265212627719678</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>652.8996112775787</v>
+        <v>482.3156414198369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1292011569763684</v>
+        <v>0.2445378482770183</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>930.2518225766573</v>
+        <v>841.7714565649028</v>
       </c>
       <c r="C6" t="n">
-        <v>9.211709383936077e-05</v>
+        <v>0.0003489757694606294</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-91.51532936996604</v>
+        <v>-34.48874144917133</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2680270501192397</v>
+        <v>0.6571178310198058</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-515.1523799399816</v>
+        <v>-718.0287409826923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01435774531302008</v>
+        <v>0.0004926421572444062</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-40.43789832458013</v>
+        <v>-35.88803024248519</v>
       </c>
       <c r="C9" t="n">
-        <v>4.473932503050653e-06</v>
+        <v>2.980525699317317e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.98612410515805</v>
+        <v>2.879800258917228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7005478172844928</v>
+        <v>0.984375341936953</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>906.085561793396</v>
+        <v>887.4702572242795</v>
       </c>
       <c r="C11" t="n">
-        <v>1.356737477247594e-05</v>
+        <v>8.191782056634779e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09813709208834565</v>
+        <v>-0.09542091026434077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02087287638310142</v>
+        <v>0.02102870317566774</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.281118201124752e-05</v>
+        <v>7.631261155163907e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1566609008709963</v>
+        <v>0.2368239094138321</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.421962847293326</v>
+        <v>-0.9888178421405378</v>
       </c>
       <c r="C14" t="n">
-        <v>0.639921483172607</v>
+        <v>0.8966577184339944</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7530023151577332</v>
+        <v>8.172375284624033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9054165272448096</v>
+        <v>0.1959449607901572</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4440.210240615064</v>
+        <v>-4302.809885183631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003431583323692129</v>
+        <v>0.0002403850367834659</v>
       </c>
     </row>
     <row r="17">
@@ -2203,23 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1584.798848789096</v>
+        <v>-361.2364056566366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07732886522521475</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-31648.41922577326</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6.583747646778345e-05</v>
+        <v>0.6995272583070395</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3822.736676854227</v>
+        <v>3974.755152217118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02655414521461952</v>
+        <v>0.02170201330391237</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>960.5421307069278</v>
+        <v>560.0772484425581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206292869192932</v>
+        <v>0.4157826361957208</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>617.1860329810362</v>
+        <v>405.7126978338853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4231581016218163</v>
+        <v>0.5635371859157421</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.3771530982119</v>
+        <v>510.6119166886747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03384708579186482</v>
+        <v>0.2482164662385774</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1174.625393212142</v>
+        <v>854.7448225853592</v>
       </c>
       <c r="C6" t="n">
-        <v>8.281654570678679e-07</v>
+        <v>0.0006992525106440926</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-31.61219568609138</v>
+        <v>-98.65000960829431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7033486154176545</v>
+        <v>0.2369827241653578</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-703.2277713224464</v>
+        <v>-564.9798923697264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0008842816381013924</v>
+        <v>0.009572991760241661</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-33.66422885686025</v>
+        <v>-29.17174520794737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001093693092427574</v>
+        <v>0.001230098372278431</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>132.7078038290874</v>
+        <v>-71.01675641269148</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385517022913312</v>
+        <v>0.656701012745838</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>907.8376083280745</v>
+        <v>1005.452674775539</v>
       </c>
       <c r="C11" t="n">
-        <v>2.13995671600076e-05</v>
+        <v>2.852160611005391e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0915063611569442</v>
+        <v>-0.06238984697776611</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03147078963508634</v>
+        <v>0.161059134826511</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.232547463147592e-05</v>
+        <v>6.565953637680997e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4410899280020077</v>
+        <v>0.3509665460702979</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.998200777242848</v>
+        <v>2.3890778153981</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7867771781872278</v>
+        <v>0.771723594350708</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01022360504390463</v>
+        <v>4.165947954691358</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988549003981468</v>
+        <v>0.5227405691237046</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4217.907448160797</v>
+        <v>-5673.506637184999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007624741409294171</v>
+        <v>8.814918838045008e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2460,23 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2212.191571123537</v>
+        <v>-2903.449781932117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01746653571375187</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-31492.03483509379</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0001718234738765433</v>
+        <v>0.004978961419674841</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2901.293528492598</v>
+        <v>4079.768130545631</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07957173186246576</v>
+        <v>0.01881679137029018</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252.7898357387135</v>
+        <v>154.983054431958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.720122181661415</v>
+        <v>0.8291044577021285</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.4334760920319</v>
+        <v>-246.6493827795661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7634741202813863</v>
+        <v>0.7356089454872243</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804.3348456525291</v>
+        <v>188.8525966636026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06025806532948518</v>
+        <v>0.6688861803099906</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>906.3689943367025</v>
+        <v>839.0561457337598</v>
       </c>
       <c r="C6" t="n">
-        <v>8.328470340754224e-05</v>
+        <v>0.000872895602306697</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-81.68452732076152</v>
+        <v>-83.74042853430227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3010643664940685</v>
+        <v>0.3220768435934356</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-803.4547690357266</v>
+        <v>-689.2238437069948</v>
       </c>
       <c r="C8" t="n">
-        <v>7.686442511498063e-05</v>
+        <v>0.001718603920496244</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.59957234588788</v>
+        <v>-38.06843090457127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003788282407149455</v>
+        <v>3.847932577920553e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.2586860640771</v>
+        <v>43.90707104130965</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003708891127237658</v>
+        <v>0.7858126180421784</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>996.1490162916715</v>
+        <v>976.2960831952158</v>
       </c>
       <c r="C11" t="n">
-        <v>1.044918453697524e-06</v>
+        <v>5.947930248672784e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0724475104747998</v>
+        <v>-0.04229081773709713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07848717046009479</v>
+        <v>0.3436116371647159</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.95550521038639e-05</v>
+        <v>-3.665564178681559e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2944868276686571</v>
+        <v>0.958986432324096</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.571132325346639</v>
+        <v>2.226438052272029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6225279357649889</v>
+        <v>0.7856923349728432</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.551020895223561</v>
+        <v>6.067665346588617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.709658215591245</v>
+        <v>0.3948598634738454</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2748.898458074299</v>
+        <v>-5003.528789989974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02238433103955315</v>
+        <v>6.487500587823389e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2717,23 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-126.5223546360741</v>
+        <v>-1781.716017138569</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8860989340837757</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-26516.78421244942</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005195803687243674</v>
+        <v>0.06860540803883199</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37580749" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ37747146" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37960098" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ38146082" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ38326798" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ38519588" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ38704535" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ38885666" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ39063394" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ45854856" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ46075919" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ46312751" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ46533390" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ46738832" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ46975308" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47196016" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ47417176" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ47653657" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1887.076399315999</v>
+        <v>2297.200075030791</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2591519966659148</v>
+        <v>0.1250351437579773</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>716.9934329602578</v>
+        <v>261.320210584386</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2813120549531731</v>
+        <v>0.6784642507481879</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>377.9107978501925</v>
+        <v>98.33214593407607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5786259749416818</v>
+        <v>0.8784404657927851</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>387.6095167580343</v>
+        <v>-28.84758215825912</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3817942243577327</v>
+        <v>0.9431326278680543</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844.4366366547495</v>
+        <v>925.492604870709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005427242917658638</v>
+        <v>4.291524477848507e-05</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-51.79424635976078</v>
+        <v>-133.5476669089454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5164009644247969</v>
+        <v>0.07751104043486119</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-818.5791818343508</v>
+        <v>-658.1693500041699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001371926371625914</v>
+        <v>0.0007825607122829221</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.15624923596033</v>
+        <v>-35.97270712296673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001387342423736429</v>
+        <v>9.109509265780171e-06</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0159471295808</v>
+        <v>112.954511263653</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3750932781155494</v>
+        <v>0.4144751492057911</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.471637949332</v>
+        <v>1122.911284777929</v>
       </c>
       <c r="C11" t="n">
-        <v>1.25725780415151e-07</v>
+        <v>6.85614160854115e-09</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03029194166707573</v>
+        <v>-0.0605897584852008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.47989010462555</v>
+        <v>0.1639627830215477</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.630670411263345e-06</v>
+        <v>2.212136693041449e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9808612450549588</v>
+        <v>0.7389063769510856</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.455676059476531</v>
+        <v>6.796058273379534</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5919194165676636</v>
+        <v>0.3278079703778362</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.509163482837627</v>
+        <v>6.313183952300668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.69747736615137</v>
+        <v>0.2891892232174741</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3957.057412735034</v>
+        <v>-3730.841202030568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001379908339395141</v>
+        <v>0.001011532779047076</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1333.229494313132</v>
+        <v>-907.258577968164</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1756401565497454</v>
+        <v>0.2773845882967231</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022.910597891494</v>
+        <v>4365.202938931167</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2321065120284137</v>
+        <v>0.00508591743220426</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525.6718940342741</v>
+        <v>485.6361340013018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4519451235394001</v>
+        <v>0.4222825909776419</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.6435004059463</v>
+        <v>114.2561020822189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6710518557034426</v>
+        <v>0.85377149938925</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502.5153590934025</v>
+        <v>183.7563553512126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2492915072406125</v>
+        <v>0.6561570830248689</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124.015258698798</v>
+        <v>722.7713227829099</v>
       </c>
       <c r="C6" t="n">
-        <v>6.674216348235477e-06</v>
+        <v>0.00192274513261641</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-146.9632460782468</v>
+        <v>-79.94589013598097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07895511500056517</v>
+        <v>0.3015238378959416</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-782.0625324620739</v>
+        <v>-507.733066962524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003504381512523673</v>
+        <v>0.01126144430652162</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-42.19372660013345</v>
+        <v>-39.0650893184432</v>
       </c>
       <c r="C9" t="n">
-        <v>2.300952720922723e-06</v>
+        <v>2.362808204135009e-06</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.2067920686621</v>
+        <v>7.925362923581531</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4824075463814126</v>
+        <v>0.9556683659808898</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1226.46800911943</v>
+        <v>832.5800906216834</v>
       </c>
       <c r="C11" t="n">
-        <v>2.532440588788016e-07</v>
+        <v>4.064433865670985e-05</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07461693521335651</v>
+        <v>-0.1530502851736708</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09229972237325634</v>
+        <v>0.0006827962942660262</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.652423981048803e-05</v>
+        <v>0.0001352780519569018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4945890395603255</v>
+        <v>0.05362438690930749</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.717128806863771</v>
+        <v>-3.208482048720354</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4742799797564262</v>
+        <v>0.6474810241243438</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.722810915872626</v>
+        <v>4.536567098229717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3265281375213474</v>
+        <v>0.4538820244248085</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3839.579295292763</v>
+        <v>-5393.67511854345</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001916945440639146</v>
+        <v>8.685629129205177e-06</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-622.5810311717652</v>
+        <v>-850.6895679878745</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5321450566296256</v>
+        <v>0.3304533602879363</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3121.499574769702</v>
+        <v>4287.263623421914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07347923396441682</v>
+        <v>0.007412543847985429</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>914.380642642357</v>
+        <v>849.0199386388922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1652654094062759</v>
+        <v>0.1811678643597847</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.7837874124583</v>
+        <v>455.2307747594912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2790023171209406</v>
+        <v>0.4811802368397282</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>767.6044808761309</v>
+        <v>160.3617439736611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08722174831070206</v>
+        <v>0.7180510055941057</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879.5088813738198</v>
+        <v>849.6834617458827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005257788939952709</v>
+        <v>0.0003980022090739268</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-90.59703278545852</v>
+        <v>-21.05119902976719</v>
       </c>
       <c r="C7" t="n">
-        <v>0.277799386481919</v>
+        <v>0.7942293647714346</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-775.856314708156</v>
+        <v>-812.0614220010075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000424803149045668</v>
+        <v>0.0001175486323094051</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-30.99725464891231</v>
+        <v>-35.66011315263911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005674959106799589</v>
+        <v>3.066381829323018e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-13.76684410638933</v>
+        <v>148.280785989445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9290999991819743</v>
+        <v>0.3232823719767282</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>954.1386205150084</v>
+        <v>1119.927347820786</v>
       </c>
       <c r="C11" t="n">
-        <v>7.745164006521319e-05</v>
+        <v>7.414055994806155e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0280185148208076</v>
+        <v>-0.07724594931370886</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5305674209620501</v>
+        <v>0.09537082234077603</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.885284333635751e-06</v>
+        <v>7.441837278697378e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9782171483406055</v>
+        <v>0.2808746913217801</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.948584848292763</v>
+        <v>-8.242321892729775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8136393086527118</v>
+        <v>0.2583248645092658</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.07128694642326</v>
+        <v>-5.910163726774993</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3184759971530294</v>
+        <v>0.3578561187135689</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5189.0790987173</v>
+        <v>-5201.591103760036</v>
       </c>
       <c r="C16" t="n">
-        <v>2.73430102454067e-05</v>
+        <v>1.814086101346358e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2112.239404669611</v>
+        <v>-1062.969321041552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03573046569635523</v>
+        <v>0.2312732089927519</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4594.663443975256</v>
+        <v>2953.817126302628</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008003493771239822</v>
+        <v>0.06376388590288444</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185.4672284860405</v>
+        <v>627.9030707856318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7811423163720852</v>
+        <v>0.3181045659262969</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-132.2708367675852</v>
+        <v>310.6256457589432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8467331934062996</v>
+        <v>0.6276907380309056</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.8909569912755</v>
+        <v>378.3784454580996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7579743142110407</v>
+        <v>0.3757983034011319</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>987.9798104931766</v>
+        <v>916.3390381983053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001172377386077064</v>
+        <v>0.0001343341668413522</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.62827427409229</v>
+        <v>-82.18342436421452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6044710968732785</v>
+        <v>0.3056369929642646</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-667.7496814885289</v>
+        <v>-709.1516731918587</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002116668718144198</v>
+        <v>0.0006727416413620923</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-41.39170836977861</v>
+        <v>-28.99545762341569</v>
       </c>
       <c r="C9" t="n">
-        <v>5.947460956363179e-06</v>
+        <v>0.0005623235633372298</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.56626101631143</v>
+        <v>235.6511412995309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8510711406949614</v>
+        <v>0.132636907076049</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1076.541219415109</v>
+        <v>1131.83924878967</v>
       </c>
       <c r="C11" t="n">
-        <v>9.253443047306502e-06</v>
+        <v>1.484394095697737e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1194607693730892</v>
+        <v>-0.08923433743585305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008461005308037072</v>
+        <v>0.05396427086021977</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001183053512679117</v>
+        <v>6.204274438196694e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09143106252846497</v>
+        <v>0.3743691573694471</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.098214893938914</v>
+        <v>-1.475233722417918</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7168769338563457</v>
+        <v>0.8423429834321695</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.525749394451781</v>
+        <v>-2.368554931655832</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8215140733243109</v>
+        <v>0.7254878186119156</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6070.850453469458</v>
+        <v>-3650.133059919372</v>
       </c>
       <c r="C16" t="n">
-        <v>1.202923653889327e-06</v>
+        <v>0.002797006472593897</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1762.965370472525</v>
+        <v>-909.9098935597176</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07449584248613755</v>
+        <v>0.3104808182730344</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3635.540451877402</v>
+        <v>4323.134302542657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03851169455271777</v>
+        <v>0.00555911474479802</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>747.0894303261393</v>
+        <v>535.3406382968861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.282306037649085</v>
+        <v>0.3792551799635323</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.4964526809698</v>
+        <v>249.9660023113489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7593111729123405</v>
+        <v>0.6876611610311849</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-119.2770105558573</v>
+        <v>387.5689346541294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7848755416853973</v>
+        <v>0.3527280861788854</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909.8888900323545</v>
+        <v>890.373566674665</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003117951194343855</v>
+        <v>0.0001363506091005015</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.51160179890864</v>
+        <v>-100.0826702311191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8414357829264689</v>
+        <v>0.1919069714135652</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-689.7863936609872</v>
+        <v>-636.5831107090187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001625024516456921</v>
+        <v>0.001778574398355744</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-33.42616779588106</v>
+        <v>-31.18543289896449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001942960367603981</v>
+        <v>0.0001951933439482539</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.82500519593792</v>
+        <v>33.66218326651932</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6116563870135485</v>
+        <v>0.8130948745475899</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1282.983192320059</v>
+        <v>1090.920289187204</v>
       </c>
       <c r="C11" t="n">
-        <v>1.636907743047488e-07</v>
+        <v>5.050694650468886e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05425561120713899</v>
+        <v>-0.1002579864986535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2202730211493982</v>
+        <v>0.02397188968329816</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.474819614821673e-05</v>
+        <v>5.741898306421527e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3445115098204818</v>
+        <v>0.4006685502418267</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.51369580248458</v>
+        <v>-1.265132674087303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8570709976611663</v>
+        <v>0.8557760921946664</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.581289613150859</v>
+        <v>-2.999017449295682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6110098646208562</v>
+        <v>0.6236386668589666</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5655.665563586139</v>
+        <v>-5456.875822394795</v>
       </c>
       <c r="C16" t="n">
-        <v>5.002513921910695e-06</v>
+        <v>4.859739730518228e-06</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2459.451662409867</v>
+        <v>-1676.786834059534</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01458071122228827</v>
+        <v>0.05595752504745979</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1417.912122320809</v>
+        <v>3835.962941060414</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3797615833286292</v>
+        <v>0.01492198238130202</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.9741854691111</v>
+        <v>803.0530138977432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5666082142479572</v>
+        <v>0.1887125367310461</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.8032359586205</v>
+        <v>347.5387753515969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7749887541035663</v>
+        <v>0.5764067482891806</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-104.6281555713707</v>
+        <v>194.7060472969025</v>
       </c>
       <c r="C5" t="n">
-        <v>0.803535114071331</v>
+        <v>0.6343930613711126</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>767.2193269166141</v>
+        <v>779.2175960916654</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00147798236752173</v>
+        <v>0.0008359936743148992</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-54.1287716755931</v>
+        <v>-8.125922413287782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5033847268930176</v>
+        <v>0.9149702923783327</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-666.6792853637207</v>
+        <v>-710.1463140008278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00127064535216902</v>
+        <v>0.0004417656179365706</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.13946550359287</v>
+        <v>-31.03707499001363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001560402594369884</v>
+        <v>0.0001801963597567429</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>199.242308972637</v>
+        <v>88.68864802653752</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1751173368851326</v>
+        <v>0.5386492310999238</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.026301373393</v>
+        <v>788.4201650606489</v>
       </c>
       <c r="C11" t="n">
-        <v>6.305576493597704e-12</v>
+        <v>0.0001093262041522702</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09496774327328097</v>
+        <v>-0.05188056123691957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0263912241492561</v>
+        <v>0.2458900534225106</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.368135463316265e-05</v>
+        <v>1.951378464345538e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3165954301208457</v>
+        <v>0.977203057720275</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14.26009276086841</v>
+        <v>-1.553311035081207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06555532871093239</v>
+        <v>0.82743857358617</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.8543034458262273</v>
+        <v>4.163381797181742</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8901189619926713</v>
+        <v>0.5054516593747111</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3799.021257118529</v>
+        <v>-4781.803479385719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001298608759016812</v>
+        <v>5.561482921007132e-05</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2019.798928532319</v>
+        <v>-1726.076695466378</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03548568365413983</v>
+        <v>0.04948587077673108</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2718.355979685718</v>
+        <v>4432.938729226931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09200905008005963</v>
+        <v>0.007931943887919892</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>630.8187405791512</v>
+        <v>553.3266644240603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3092472705868795</v>
+        <v>0.4475761375722764</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.0020291125145</v>
+        <v>397.8516293277492</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5265212627719678</v>
+        <v>0.592950036678391</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.3156414198369</v>
+        <v>415.5378714745616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2445378482770183</v>
+        <v>0.3343263268751868</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.7714565649028</v>
+        <v>890.0418567713033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003489757694606294</v>
+        <v>0.0002036682302797408</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.48874144917133</v>
+        <v>-48.45314493827514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6571178310198058</v>
+        <v>0.5573208277572248</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-718.0287409826923</v>
+        <v>-495.1178666320612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004926421572444062</v>
+        <v>0.01952078037347849</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.88803024248519</v>
+        <v>-37.48748952163342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.980525699317317e-05</v>
+        <v>2.214629511617372e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.879800258917228</v>
+        <v>-53.49222495863785</v>
       </c>
       <c r="C10" t="n">
-        <v>0.984375341936953</v>
+        <v>0.721412893537186</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>887.4702572242795</v>
+        <v>987.1825865959197</v>
       </c>
       <c r="C11" t="n">
-        <v>8.191782056634779e-05</v>
+        <v>2.280273485560158e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09542091026434077</v>
+        <v>-0.1000970695823428</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02102870317566774</v>
+        <v>0.03079425595723133</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.631261155163907e-05</v>
+        <v>8.511410850409098e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2368239094138321</v>
+        <v>0.2162966630252026</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.9888178421405378</v>
+        <v>-4.015807834507368</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8966577184339944</v>
+        <v>0.5856579401606249</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.172375284624033</v>
+        <v>1.756462904438887</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1959449607901572</v>
+        <v>0.7821557463060678</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4302.809885183631</v>
+        <v>-5800.773908452786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002403850367834659</v>
+        <v>2.421316699255832e-06</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-361.2364056566366</v>
+        <v>-1553.250210835251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6995272583070395</v>
+        <v>0.08620003354813675</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3974.755152217118</v>
+        <v>3356.855467080788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02170201330391237</v>
+        <v>0.05231910678688878</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.0772484425581</v>
+        <v>1015.10608319392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4157826361957208</v>
+        <v>0.184659512020158</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.7126978338853</v>
+        <v>613.529995618053</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5635371859157421</v>
+        <v>0.429236137298927</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.6119166886747</v>
+        <v>707.6017200843747</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2482164662385774</v>
+        <v>0.1108282434094857</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>854.7448225853592</v>
+        <v>1153.399889015326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0006992525106440926</v>
+        <v>1.521282745742083e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-98.65000960829431</v>
+        <v>1.651998966414475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2369827241653578</v>
+        <v>0.9841426221039018</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-564.9798923697264</v>
+        <v>-698.6804833153785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009572991760241661</v>
+        <v>0.001035701354643245</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-29.17174520794737</v>
+        <v>-32.68114714857749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001230098372278431</v>
+        <v>0.0001884919008917509</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-71.01675641269148</v>
+        <v>60.94746159704469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.656701012745838</v>
+        <v>0.691086541257103</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1005.452674775539</v>
+        <v>973.844229362287</v>
       </c>
       <c r="C11" t="n">
-        <v>2.852160611005391e-05</v>
+        <v>5.513388251163561e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06238984697776611</v>
+        <v>-0.09411797254871127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.161059134826511</v>
+        <v>0.04223123923900503</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.565953637680997e-05</v>
+        <v>4.136626546621457e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3509665460702979</v>
+        <v>0.5605483471523345</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.3890778153981</v>
+        <v>0.8547159673750149</v>
       </c>
       <c r="C14" t="n">
-        <v>0.771723594350708</v>
+        <v>0.9083792727825724</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.165947954691358</v>
+        <v>2.201941072869049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5227405691237046</v>
+        <v>0.7579561902833136</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5673.506637184999</v>
+        <v>-5120.562269654771</v>
       </c>
       <c r="C16" t="n">
-        <v>8.814918838045008e-06</v>
+        <v>4.955928487898662e-05</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2903.449781932117</v>
+        <v>-2062.802459129356</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004978961419674841</v>
+        <v>0.0278299305627159</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4079.768130545631</v>
+        <v>2441.668487496602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01881679137029018</v>
+        <v>0.1411194401838047</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.983054431958</v>
+        <v>234.563233809375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8291044577021285</v>
+        <v>0.7412032076327344</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-246.6493827795661</v>
+        <v>164.3900029731174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7356089454872243</v>
+        <v>0.8204206492644313</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.8525966636026</v>
+        <v>592.1686970000475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6688861803099906</v>
+        <v>0.1655018213229161</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>839.0561457337598</v>
+        <v>856.4421977456865</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000872895602306697</v>
+        <v>0.0002114089801925779</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-83.74042853430227</v>
+        <v>-51.08650563772752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3220768435934356</v>
+        <v>0.517409647113894</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-689.2238437069948</v>
+        <v>-770.5817089395284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001718603920496244</v>
+        <v>0.0001596384235696349</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.06843090457127</v>
+        <v>-27.2169612783394</v>
       </c>
       <c r="C9" t="n">
-        <v>3.847932577920553e-05</v>
+        <v>0.001097404112803931</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.90707104130965</v>
+        <v>334.6312453468472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7858126180421784</v>
+        <v>0.02109189974020638</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>976.2960831952158</v>
+        <v>1065.756779244617</v>
       </c>
       <c r="C11" t="n">
-        <v>5.947930248672784e-05</v>
+        <v>1.812101889389619e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04229081773709713</v>
+        <v>-0.07042774288442258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3436116371647159</v>
+        <v>0.1154912002361293</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.665564178681559e-06</v>
+        <v>5.697623173102833e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.958986432324096</v>
+        <v>0.4116723429462275</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.226438052272029</v>
+        <v>-3.828708892656082</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7856923349728432</v>
+        <v>0.5997545672047185</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.067665346588617</v>
+        <v>-0.004312741222701533</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3948598634738454</v>
+        <v>0.999497578628499</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5003.528789989974</v>
+        <v>-3794.652655418545</v>
       </c>
       <c r="C16" t="n">
-        <v>6.487500587823389e-05</v>
+        <v>0.001541137328771556</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1781.716017138569</v>
+        <v>-61.24884986819234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06860540803883199</v>
+        <v>0.9451410175851669</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ45854856" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ46075919" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ46312751" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ46533390" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ46738832" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ46975308" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47196016" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ47417176" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ47653657" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05871647" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06088680" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06318854" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06548205" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06767754" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07019143" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ07251678" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07468429" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07698778" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05871647" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06088680" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06318854" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06548205" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06767754" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07019143" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07251678" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07468429" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07698778" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01546722" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ01729379" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ01937409" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ02153676" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ02386129" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ02619455" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ02869469" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ03110742" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ03336031" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2297.200075030791</v>
+        <v>3235.516288132571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1250351437579773</v>
+        <v>0.004964434370045226</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261.320210584386</v>
+        <v>316.5462350665686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6784642507481879</v>
+        <v>0.6141244898920246</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.33214593407607</v>
+        <v>142.1078236228456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8784404657927851</v>
+        <v>0.8246441236524219</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-28.84758215825912</v>
+        <v>-14.82380118202593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9431326278680543</v>
+        <v>0.9707404723529081</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>925.492604870709</v>
+        <v>950.1560027940833</v>
       </c>
       <c r="C6" t="n">
-        <v>4.291524477848507e-05</v>
+        <v>2.383162764209092e-05</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-133.5476669089454</v>
+        <v>-141.6785811091323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07751104043486119</v>
+        <v>0.05956119497124682</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-658.1693500041699</v>
+        <v>-679.1511150133998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007825607122829221</v>
+        <v>0.0004897798593947886</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.97270712296673</v>
+        <v>-35.80797302555359</v>
       </c>
       <c r="C9" t="n">
-        <v>9.109509265780171e-06</v>
+        <v>9.94925877667402e-06</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.954511263653</v>
+        <v>123.5399292258554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4144751492057911</v>
+        <v>0.3706568602830477</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1122.911284777929</v>
+        <v>1027.326497605154</v>
       </c>
       <c r="C11" t="n">
-        <v>6.85614160854115e-09</v>
+        <v>7.749830873500993e-10</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0605897584852008</v>
+        <v>-0.0610489435554922</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1639627830215477</v>
+        <v>0.1607605542332816</v>
       </c>
     </row>
     <row r="13">
@@ -609,62 +609,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.212136693041449e-05</v>
+        <v>4.673217679531226e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7389063769510856</v>
+        <v>0.4468080667324982</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.796058273379534</v>
+        <v>2.840321482238843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3278079703778362</v>
+        <v>0.552568623906501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.313183952300668</v>
+        <v>-4013.212799706052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2891892232174741</v>
+        <v>0.0002577034108181107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3730.841202030568</v>
+        <v>-838.5714266177372</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001011532779047076</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-907.258577968164</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2773845882967231</v>
+        <v>0.313640979291411</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4365.202938931167</v>
+        <v>3908.158826226426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00508591743220426</v>
+        <v>0.001063225485234845</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>485.6361340013018</v>
+        <v>454.2414124311483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4222825909776419</v>
+        <v>0.4497615590966931</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2561020822189</v>
+        <v>89.33008665966759</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85377149938925</v>
+        <v>0.8849292010316862</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.7563553512126</v>
+        <v>182.8589085923229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6561570830248689</v>
+        <v>0.6575861719010485</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>722.7713227829099</v>
+        <v>713.354524061614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00192274513261641</v>
+        <v>0.002104512049768465</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-79.94589013598097</v>
+        <v>-75.78657647404592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3015238378959416</v>
+        <v>0.3237829489515036</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-507.733066962524</v>
+        <v>-499.430024825829</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01126144430652162</v>
+        <v>0.01226009391676073</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-39.0650893184432</v>
+        <v>-39.08907535585779</v>
       </c>
       <c r="C9" t="n">
-        <v>2.362808204135009e-06</v>
+        <v>2.305251914523075e-06</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.925362923581531</v>
+        <v>3.770750724293812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9556683659808898</v>
+        <v>0.9788472144742377</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>832.5800906216834</v>
+        <v>880.1163641301384</v>
       </c>
       <c r="C11" t="n">
-        <v>4.064433865670985e-05</v>
+        <v>4.415046069938372e-07</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1530502851736708</v>
+        <v>-0.1533355882439009</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006827962942660262</v>
+        <v>0.0006628708224005423</v>
       </c>
     </row>
     <row r="13">
@@ -853,62 +840,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001352780519569018</v>
+        <v>0.0001234206634694202</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05362438690930749</v>
+        <v>0.05791680715935326</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.208482048720354</v>
+        <v>6.118934764090155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6474810241243438</v>
+        <v>0.2182800938871156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.536567098229717</v>
+        <v>-5244.514556342496</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4538820244248085</v>
+        <v>7.00960276447596e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5393.67511854345</v>
+        <v>-858.6121500878406</v>
       </c>
       <c r="C16" t="n">
-        <v>8.685629129205177e-06</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-850.6895679878745</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3304533602879363</v>
+        <v>0.3256667840670124</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4287.263623421914</v>
+        <v>3135.370553221891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007412543847985429</v>
+        <v>0.01102665322566941</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>849.0199386388922</v>
+        <v>766.9794740386583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1811678643597847</v>
+        <v>0.224042706677008</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>455.2307747594912</v>
+        <v>388.6372725998003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4811802368397282</v>
+        <v>0.545973669859346</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.3617439736611</v>
+        <v>165.3633028853613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7180510055941057</v>
+        <v>0.7096792642947038</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>849.6834617458827</v>
+        <v>832.6282579993446</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003980022090739268</v>
+        <v>0.0005067579713117142</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.05119902976719</v>
+        <v>-11.01909625716043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7942293647714346</v>
+        <v>0.8907628969473981</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-812.0614220010075</v>
+        <v>-782.3773034721004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001175486323094051</v>
+        <v>0.0001839806046712299</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.66011315263911</v>
+        <v>-35.79044665447084</v>
       </c>
       <c r="C9" t="n">
-        <v>3.066381829323018e-05</v>
+        <v>2.872595754292024e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.280785989445</v>
+        <v>139.2933301204606</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3232823719767282</v>
+        <v>0.3528588425669765</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1119.927347820786</v>
+        <v>1230.884781760169</v>
       </c>
       <c r="C11" t="n">
-        <v>7.414055994806155e-08</v>
+        <v>2.213229996824217e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07724594931370886</v>
+        <v>-0.07781601219646429</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09537082234077603</v>
+        <v>0.0929853951770928</v>
       </c>
     </row>
     <row r="13">
@@ -1097,62 +1071,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.441837278697378e-05</v>
+        <v>4.419420011939988e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2808746913217801</v>
+        <v>0.4872594524619764</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.242321892729775</v>
+        <v>-1.640468445665336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2583248645092658</v>
+        <v>0.7524467359380708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.910163726774993</v>
+        <v>-4835.655816592147</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3578561187135689</v>
+        <v>3.514953060023436e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5201.591103760036</v>
+        <v>-1122.254145883682</v>
       </c>
       <c r="C16" t="n">
-        <v>1.814086101346358e-05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1062.969321041552</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2312732089927519</v>
+        <v>0.2055813589690388</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2953.817126302628</v>
+        <v>2749.606629266858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06376388590288444</v>
+        <v>0.02392879251299133</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>627.9030707856318</v>
+        <v>614.7042920347548</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3181045659262969</v>
+        <v>0.3254154049592765</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.6256457589432</v>
+        <v>300.346167878446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6276907380309056</v>
+        <v>0.6378446203519801</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.3784454580996</v>
+        <v>379.4548952438139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3757983034011319</v>
+        <v>0.3741521074154934</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>916.3390381983053</v>
+        <v>912.984358571264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001343341668413522</v>
+        <v>0.0001356604163592578</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-82.18342436421452</v>
+        <v>-79.64619822514496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3056369929642646</v>
+        <v>0.3143504698447095</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-709.1516731918587</v>
+        <v>-704.5316001416777</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006727416413620923</v>
+        <v>0.0006704491552417937</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.99545762341569</v>
+        <v>-28.98890382088868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005623235633372298</v>
+        <v>0.0005600979804849083</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.6511412995309</v>
+        <v>232.7975107607516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.132636907076049</v>
+        <v>0.1355291119127041</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1131.83924878967</v>
+        <v>1151.097492355017</v>
       </c>
       <c r="C11" t="n">
-        <v>1.484394095697737e-07</v>
+        <v>2.182323383908099e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08923433743585305</v>
+        <v>-0.08928997408953332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05396427086021977</v>
+        <v>0.05368440313252242</v>
       </c>
     </row>
     <row r="13">
@@ -1341,62 +1302,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.204274438196694e-05</v>
+        <v>5.654966295412805e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3743691573694471</v>
+        <v>0.3777678766208756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.475233722417918</v>
+        <v>-1.60097069759162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8423429834321695</v>
+        <v>0.7721689395408733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.368554931655832</v>
+        <v>-3590.813630797593</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7254878186119156</v>
+        <v>0.002410776601639362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3650.133059919372</v>
+        <v>-923.9445615946034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002797006472593897</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-909.9098935597176</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3104808182730344</v>
+        <v>0.3013265585924654</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4323.134302542657</v>
+        <v>4141.235656918079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00555911474479802</v>
+        <v>0.0005270278182093856</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>535.3406382968861</v>
+        <v>523.7021658069297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3792551799635323</v>
+        <v>0.3868093891330495</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9660023113489</v>
+        <v>241.4980379042217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6876611610311849</v>
+        <v>0.6967475519751039</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>387.5689346541294</v>
+        <v>385.9639531351744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3527280861788854</v>
+        <v>0.3543612622871222</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>890.373566674665</v>
+        <v>886.7251116852141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001363506091005015</v>
+        <v>0.0001359939689914191</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-100.0826702311191</v>
+        <v>-98.29877683950127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1919069714135652</v>
+        <v>0.1959998373278458</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-636.5831107090187</v>
+        <v>-632.1906703553534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001778574398355744</v>
+        <v>0.001764808200059325</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.18543289896449</v>
+        <v>-31.16834031654668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001951933439482539</v>
+        <v>0.0001950496859975571</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.66218326651932</v>
+        <v>31.23315259718361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8130948745475899</v>
+        <v>0.825509225819832</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1090.920289187204</v>
+        <v>1109.080215097949</v>
       </c>
       <c r="C11" t="n">
-        <v>5.050694650468886e-08</v>
+        <v>1.608378404964747e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1002579864986535</v>
+        <v>-0.1003958176361128</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02397188968329816</v>
+        <v>0.02368477455348423</v>
       </c>
     </row>
     <row r="13">
@@ -1585,62 +1533,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.741898306421527e-05</v>
+        <v>5.288946440688826e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4006685502418267</v>
+        <v>0.4054745370331463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.265132674087303</v>
+        <v>-2.341711039382333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8557760921946664</v>
+        <v>0.6343868966554662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.999017449295682</v>
+        <v>-5403.813308233732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6236386668589666</v>
+        <v>2.996464048101269e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5456.875822394795</v>
+        <v>-1682.541852312055</v>
       </c>
       <c r="C16" t="n">
-        <v>4.859739730518228e-06</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1676.786834059534</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05595752504745979</v>
+        <v>0.05483484727687248</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3835.962941060414</v>
+        <v>3616.17126939083</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01492198238130202</v>
+        <v>0.002803580003181662</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>803.0530138977432</v>
+        <v>786.4912297373517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1887125367310461</v>
+        <v>0.1942654961068413</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.5387753515969</v>
+        <v>335.7034359393624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5764067482891806</v>
+        <v>0.5878393314272876</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.7060472969025</v>
+        <v>195.8659582491276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6343930613711126</v>
+        <v>0.6321691977383227</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779.2175960916654</v>
+        <v>777.7949011192517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008359936743148992</v>
+        <v>0.0008451056043449484</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.125922413287782</v>
+        <v>-6.323720611020832</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9149702923783327</v>
+        <v>0.933350873836992</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-710.1463140008278</v>
+        <v>-707.1793884841114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004417656179365706</v>
+        <v>0.0004497901373295856</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.03707499001363</v>
+        <v>-31.08247375908877</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001801963597567429</v>
+        <v>0.0001741330612399701</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.68864802653752</v>
+        <v>86.15703175530864</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5386492310999238</v>
+        <v>0.5487941007825654</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>788.4201650606489</v>
+        <v>811.8503917998862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001093262041522702</v>
+        <v>2.73164180140839e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05188056123691957</v>
+        <v>-0.05193982949799434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2458900534225106</v>
+        <v>0.2450959166610779</v>
       </c>
     </row>
     <row r="13">
@@ -1829,62 +1764,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.951378464345538e-06</v>
+        <v>-3.388760226410092e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.977203057720275</v>
+        <v>0.9575800463951779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.553311035081207</v>
+        <v>4.947626216806214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.82743857358617</v>
+        <v>0.33300859606678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.163381797181742</v>
+        <v>-4717.817954672701</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5054516593747111</v>
+        <v>4.007889190701156e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4781.803479385719</v>
+        <v>-1736.145252110852</v>
       </c>
       <c r="C16" t="n">
-        <v>5.561482921007132e-05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1726.076695466378</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04948587077673108</v>
+        <v>0.04775011610416738</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +1820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4432.938729226931</v>
+        <v>3856.809415181009</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007931943887919892</v>
+        <v>0.002817310680739984</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>553.3266644240603</v>
+        <v>520.748614988094</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4475761375722764</v>
+        <v>0.4730943306719858</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>397.8516293277492</v>
+        <v>374.618513495953</v>
       </c>
       <c r="C4" t="n">
-        <v>0.592950036678391</v>
+        <v>0.613997624694558</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.5378714745616</v>
+        <v>412.2197897625571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3343263268751868</v>
+        <v>0.3379637002942103</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>890.0418567713033</v>
+        <v>879.6569109966192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002036682302797408</v>
+        <v>0.0002291633509406071</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-48.45314493827514</v>
+        <v>-42.00758224837911</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5573208277572248</v>
+        <v>0.6070633389296518</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-495.1178666320612</v>
+        <v>-481.8625267451365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01952078037347849</v>
+        <v>0.02207514120518023</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.48748952163342</v>
+        <v>-37.4040244487249</v>
       </c>
       <c r="C9" t="n">
-        <v>2.214629511617372e-05</v>
+        <v>2.285544836356915e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-53.49222495863785</v>
+        <v>-60.64391343566311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.721412893537186</v>
+        <v>0.6847793079505213</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>987.1825865959197</v>
+        <v>1045.757003609471</v>
       </c>
       <c r="C11" t="n">
-        <v>2.280273485560158e-06</v>
+        <v>5.354906334957609e-09</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1000970695823428</v>
+        <v>-0.1008054189754334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03079425595723133</v>
+        <v>0.02950590025831338</v>
       </c>
     </row>
     <row r="13">
@@ -2073,62 +1995,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.511410850409098e-05</v>
+        <v>7.177048084594768e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2162966630252026</v>
+        <v>0.2643922790480737</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.015807834507368</v>
+        <v>3.783581542057634</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5856579401606249</v>
+        <v>0.4624431471398524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.756462904438887</v>
+        <v>-5646.827001437743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7821557463060678</v>
+        <v>2.372364894503149e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5800.773908452786</v>
+        <v>-1585.786466878526</v>
       </c>
       <c r="C16" t="n">
-        <v>2.421316699255832e-06</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-1553.250210835251</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08620003354813675</v>
+        <v>0.07905939863703332</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3356.855467080788</v>
+        <v>3483.100175669621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05231910678688878</v>
+        <v>0.009185475389224299</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1015.10608319392</v>
+        <v>1024.236379159908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184659512020158</v>
+        <v>0.1781590737135907</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.529995618053</v>
+        <v>621.3817420467</v>
       </c>
       <c r="C4" t="n">
-        <v>0.429236137298927</v>
+        <v>0.4213050183115752</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.6017200843747</v>
+        <v>707.7056747565512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1108282434094857</v>
+        <v>0.1105820198417611</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1153.399889015326</v>
+        <v>1155.192990910766</v>
       </c>
       <c r="C6" t="n">
-        <v>1.521282745742083e-06</v>
+        <v>1.374914358992704e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.651998966414475</v>
+        <v>0.6437395570705533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9841426221039018</v>
+        <v>0.9937824771713358</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-698.6804833153785</v>
+        <v>-701.3102672931529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001035701354643245</v>
+        <v>0.0009202619858404785</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.68114714857749</v>
+        <v>-32.67767051779207</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001884919008917509</v>
+        <v>0.0001872595539265491</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.94746159704469</v>
+        <v>63.11085735104586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.691086541257103</v>
+        <v>0.6782620963249292</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>973.844229362287</v>
+        <v>961.9886289405116</v>
       </c>
       <c r="C11" t="n">
-        <v>5.513388251163561e-06</v>
+        <v>3.008500382837288e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09411797254871127</v>
+        <v>-0.09392227640172751</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04223123923900503</v>
+        <v>0.04240885847491895</v>
       </c>
     </row>
     <row r="13">
@@ -2317,62 +2226,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.136626546621457e-05</v>
+        <v>4.420548241815306e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5605483471523345</v>
+        <v>0.5069698323091141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8547159673750149</v>
+        <v>1.696974454562536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9083792727825724</v>
+        <v>0.763350533676924</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.201941072869049</v>
+        <v>-5155.953593363753</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7579561902833136</v>
+        <v>2.500510377957042e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-5120.562269654771</v>
+        <v>-2062.21272792118</v>
       </c>
       <c r="C16" t="n">
-        <v>4.955928487898662e-05</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-2062.802459129356</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0278299305627159</v>
+        <v>0.02778757372914829</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2441.668487496602</v>
+        <v>1886.150052577718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1411194401838047</v>
+        <v>0.1395406576401887</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>234.563233809375</v>
+        <v>205.4787912439915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7412032076327344</v>
+        <v>0.7715773777406207</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.3900029731174</v>
+        <v>142.3664417661779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8204206492644313</v>
+        <v>0.8438261272690801</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>592.1686970000475</v>
+        <v>589.2154734264831</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1655018213229161</v>
+        <v>0.1674135378010897</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856.4421977456865</v>
+        <v>845.8870729512702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002114089801925779</v>
+        <v>0.000237802281444925</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-51.08650563772752</v>
+        <v>-47.41043974609579</v>
       </c>
       <c r="C7" t="n">
-        <v>0.517409647113894</v>
+        <v>0.5462478383763699</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-770.5817089395284</v>
+        <v>-755.7698578861749</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001596384235696349</v>
+        <v>0.0001833027299480323</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.2169612783394</v>
+        <v>-27.35097291350321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001097404112803931</v>
+        <v>0.001026684255082125</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>334.6312453468472</v>
+        <v>325.2617355928579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02109189974020638</v>
+        <v>0.02382068947849691</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1065.756779244617</v>
+        <v>1118.544199757259</v>
       </c>
       <c r="C11" t="n">
-        <v>1.812101889389619e-07</v>
+        <v>3.210004022995017e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07042774288442258</v>
+        <v>-0.07024446792059924</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1154912002361293</v>
+        <v>0.1162836893031819</v>
       </c>
     </row>
     <row r="13">
@@ -2561,62 +2457,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.697623173102833e-05</v>
+        <v>4.330605337677255e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4116723429462275</v>
+        <v>0.5006104279550985</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.828708892656082</v>
+        <v>2.259166687347246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5997545672047185</v>
+        <v>0.670998094650895</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.004312741222701533</v>
+        <v>-3633.062851689901</v>
       </c>
       <c r="C15" t="n">
-        <v>0.999497578628499</v>
+        <v>0.001693301414397341</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3794.652655418545</v>
+        <v>-95.97085810534736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001541137328771556</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-61.24884986819234</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9451410175851669</v>
+        <v>0.9138688116076654</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Nimes.xlsx
+++ b/outputs/ML_Results/dist_commute/Nimes.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01546722" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ01729379" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01937409" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ02153676" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02386129" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02619455" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ02869469" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ03110742" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ03336031" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31766183" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ31922624" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ32091657" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ32264301" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ32431316" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ32599481" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ32767991" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ32936007" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ33103548" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3235.516288132571</v>
+        <v>3235.516288204175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004964434370045226</v>
+        <v>0.004964434366156035</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5462350665686</v>
+        <v>316.5462350569876</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6141244898920246</v>
+        <v>0.6141244898920299</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.1078236228456</v>
+        <v>142.1078236274617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8246441236524219</v>
+        <v>0.8246441236491263</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-14.82380118202593</v>
+        <v>-14.82380117790905</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9707404723529081</v>
+        <v>0.970740472360995</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>950.1560027940833</v>
+        <v>950.1560027935964</v>
       </c>
       <c r="C6" t="n">
-        <v>2.383162764209092e-05</v>
+        <v>2.383162764244162e-05</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-141.6785811091323</v>
+        <v>-141.6785811106408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05956119497124682</v>
+        <v>0.0595611949681927</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-679.1511150133998</v>
+        <v>-679.1511150209981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004897798593947886</v>
+        <v>0.0004897798593076647</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.80797302555359</v>
+        <v>-35.80797302577382</v>
       </c>
       <c r="C9" t="n">
-        <v>9.94925877667402e-06</v>
+        <v>9.949258773884542e-06</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5399292258554</v>
+        <v>123.5399292177134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3706568602830477</v>
+        <v>0.3706568603151176</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1027.326497605154</v>
+        <v>1027.326497646609</v>
       </c>
       <c r="C11" t="n">
-        <v>7.749830873500993e-10</v>
+        <v>7.749830859911597e-10</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0610489435554922</v>
+        <v>-6.104894356354174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1607605542332816</v>
+        <v>0.1607605541635043</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.673217679531226e-05</v>
+        <v>46.73217695039754</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4468080667324982</v>
+        <v>0.446808065313224</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.840321482238843</v>
+        <v>2.840321482238942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.552568623906501</v>
+        <v>0.5525686239064863</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4013.212799706052</v>
+        <v>-40.13212799706031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002577034108181107</v>
+        <v>0.0002577034108181416</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-838.5714266177372</v>
+        <v>-8.385714266177233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.313640979291411</v>
+        <v>0.3136409792914198</v>
       </c>
     </row>
   </sheetData>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3908.158826226426</v>
+        <v>3908.158826055838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001063225485234845</v>
+        <v>0.001063225486965581</v>
       </c>
     </row>
     <row r="3">
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.2414124311483</v>
+        <v>454.2414124661439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4497615590966931</v>
+        <v>0.4497615590966507</v>
       </c>
     </row>
     <row r="4">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.33008665966759</v>
+        <v>89.33008671526659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8849292010316862</v>
+        <v>0.8849292009733483</v>
       </c>
     </row>
     <row r="5">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>182.8589085923229</v>
+        <v>182.8589086903165</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6575861719010485</v>
+        <v>0.6575861717221506</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>713.354524061614</v>
+        <v>713.3545240551747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002104512049768465</v>
+        <v>0.002104512050035854</v>
       </c>
     </row>
     <row r="7">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-75.78657647404592</v>
+        <v>-75.7865764821783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3237829489515036</v>
+        <v>0.3237829488941563</v>
       </c>
     </row>
     <row r="8">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-499.430024825829</v>
+        <v>-499.430024851087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01226009391676073</v>
+        <v>0.01226009391156607</v>
       </c>
     </row>
     <row r="9">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-39.08907535585779</v>
+        <v>-39.08907535560948</v>
       </c>
       <c r="C9" t="n">
-        <v>2.305251914523075e-06</v>
+        <v>2.305251915154298e-06</v>
       </c>
     </row>
     <row r="10">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.770750724293812</v>
+        <v>3.770750741541825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9788472144742377</v>
+        <v>0.9788472143774312</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>880.1163641301384</v>
+        <v>880.1163641668037</v>
       </c>
       <c r="C11" t="n">
-        <v>4.415046069938372e-07</v>
+        <v>4.415046064371919e-07</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1533355882439009</v>
+        <v>-15.33355882337124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006628708224005423</v>
+        <v>0.0006628708232140282</v>
       </c>
     </row>
     <row r="13">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001234206634694202</v>
+        <v>123.4206635177144</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05791680715935326</v>
+        <v>0.05791680711426087</v>
       </c>
     </row>
     <row r="14">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.118934764090155</v>
+        <v>6.118934764090158</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2182800938871156</v>
+        <v>0.2182800938871166</v>
       </c>
     </row>
     <row r="15">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5244.514556342496</v>
+        <v>-52.44514556342512</v>
       </c>
       <c r="C15" t="n">
-        <v>7.00960276447596e-06</v>
+        <v>7.009602764476022e-06</v>
       </c>
     </row>
     <row r="16">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-858.6121500878406</v>
+        <v>-8.586121500878352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3256667840670124</v>
+        <v>0.3256667840670152</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3135.370553221891</v>
+        <v>3135.370553729081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01102665322566941</v>
+        <v>0.01102665319830249</v>
       </c>
     </row>
     <row r="3">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>766.9794740386583</v>
+        <v>766.9794741270376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224042706677008</v>
+        <v>0.2240427066768955</v>
       </c>
     </row>
     <row r="4">
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.6372725998003</v>
+        <v>388.6372726168712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.545973669859346</v>
+        <v>0.5459736698499449</v>
       </c>
     </row>
     <row r="5">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.3633028853613</v>
+        <v>165.3633031971843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7096792642947038</v>
+        <v>0.7096792637609511</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>832.6282579993446</v>
+        <v>832.6282581902259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005067579713117142</v>
+        <v>0.000506757969421878</v>
       </c>
     </row>
     <row r="7">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.01909625716043</v>
+        <v>-11.01909628855062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8907628969473981</v>
+        <v>0.8907628966352987</v>
       </c>
     </row>
     <row r="8">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-782.3773034721004</v>
+        <v>-782.3773034334949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001839806046712299</v>
+        <v>0.0001839806048254587</v>
       </c>
     </row>
     <row r="9">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-35.79044665447084</v>
+        <v>-35.79044665264379</v>
       </c>
       <c r="C9" t="n">
-        <v>2.872595754292024e-05</v>
+        <v>2.872595758325395e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.2933301204606</v>
+        <v>139.2933301360314</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3528588425669765</v>
+        <v>0.3528588425127259</v>
       </c>
     </row>
     <row r="11">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1230.884781760169</v>
+        <v>1230.884781582011</v>
       </c>
       <c r="C11" t="n">
-        <v>2.213229996824217e-11</v>
+        <v>2.21323001132539e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07781601219646429</v>
+        <v>-7.781601209051933</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0929853951770928</v>
+        <v>0.09298539569089082</v>
       </c>
     </row>
     <row r="13">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.419420011939988e-05</v>
+        <v>44.19419991384512</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4872594524619764</v>
+        <v>0.4872594546692816</v>
       </c>
     </row>
     <row r="14">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.640468445665336</v>
+        <v>-1.640468445665348</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7524467359380708</v>
+        <v>0.7524467359380691</v>
       </c>
     </row>
     <row r="15">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4835.655816592147</v>
+        <v>-48.35655816592115</v>
       </c>
       <c r="C15" t="n">
-        <v>3.514953060023436e-05</v>
+        <v>3.514953060023864e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1122.254145883682</v>
+        <v>-11.22254145883621</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2055813589690388</v>
+        <v>0.2055813589690615</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2749.606629266858</v>
+        <v>2749.606627570193</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02392879251299133</v>
+        <v>0.0239287927043274</v>
       </c>
     </row>
     <row r="3">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.7042920347548</v>
+        <v>614.7042920534573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3254154049592765</v>
+        <v>0.3254154049593803</v>
       </c>
     </row>
     <row r="4">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300.346167878446</v>
+        <v>300.3461679166764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6378446203519801</v>
+        <v>0.6378446203284949</v>
       </c>
     </row>
     <row r="5">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.4548952438139</v>
+        <v>379.4548950610126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3741521074154934</v>
+        <v>0.3741521076600143</v>
       </c>
     </row>
     <row r="6">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>912.984358571264</v>
+        <v>912.9843585657202</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001356604163592578</v>
+        <v>0.0001356604163766984</v>
       </c>
     </row>
     <row r="7">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-79.64619822514496</v>
+        <v>-79.64619823755389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3143504698447095</v>
+        <v>0.3143504697631876</v>
       </c>
     </row>
     <row r="8">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-704.5316001416777</v>
+        <v>-704.5316001526687</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006704491552417937</v>
+        <v>0.0006704491550851504</v>
       </c>
     </row>
     <row r="9">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-28.98890382088868</v>
+        <v>-28.98890382155014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005600979804849083</v>
+        <v>0.0005600979802404193</v>
       </c>
     </row>
     <row r="10">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.7975107607516</v>
+        <v>232.7975107365008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1355291119127041</v>
+        <v>0.1355291119546272</v>
       </c>
     </row>
     <row r="11">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1151.097492355017</v>
+        <v>1151.097492454716</v>
       </c>
       <c r="C11" t="n">
-        <v>2.182323383908099e-09</v>
+        <v>2.182323375823181e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.08928997408953332</v>
+        <v>-8.92899740944641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05368440313252242</v>
+        <v>0.0536844031166612</v>
       </c>
     </row>
     <row r="13">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.654966295412805e-05</v>
+        <v>56.54966295253244</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3777678766208756</v>
+        <v>0.3777678763935257</v>
       </c>
     </row>
     <row r="14">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.60097069759162</v>
+        <v>-1.600970697592048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7721689395408733</v>
+        <v>0.7721689395408137</v>
       </c>
     </row>
     <row r="15">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3590.813630797593</v>
+        <v>-35.90813630797588</v>
       </c>
       <c r="C15" t="n">
-        <v>0.002410776601639362</v>
+        <v>0.002410776601639553</v>
       </c>
     </row>
     <row r="16">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-923.9445615946034</v>
+        <v>-9.239445615945945</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3013265585924654</v>
+        <v>0.3013265585924713</v>
       </c>
     </row>
   </sheetData>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4141.235656918079</v>
+        <v>4141.235657200843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005270278182093856</v>
+        <v>0.0005270278167828906</v>
       </c>
     </row>
     <row r="3">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>523.7021658069297</v>
+        <v>523.7021658242819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3868093891330495</v>
+        <v>0.3868093891331804</v>
       </c>
     </row>
     <row r="4">
@@ -1416,10 +1416,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.4980379042217</v>
+        <v>241.4980379654752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6967475519751039</v>
+        <v>0.6967475519330325</v>
       </c>
     </row>
     <row r="5">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.9639531351744</v>
+        <v>385.9639529383745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3543612622871222</v>
+        <v>0.3543612625563352</v>
       </c>
     </row>
     <row r="6">
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>886.7251116852141</v>
+        <v>886.7251117048982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001359939689914191</v>
+        <v>0.0001359939689241219</v>
       </c>
     </row>
     <row r="7">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-98.29877683950127</v>
+        <v>-98.29877686600949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1959998373278458</v>
+        <v>0.1959998371916204</v>
       </c>
     </row>
     <row r="8">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-632.1906703553534</v>
+        <v>-632.1906703979339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001764808200059325</v>
+        <v>0.001764808198527733</v>
       </c>
     </row>
     <row r="9">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.16834031654668</v>
+        <v>-31.16834031753746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001950496859975571</v>
+        <v>0.000195049685844925</v>
       </c>
     </row>
     <row r="10">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.23315259718361</v>
+        <v>31.23315252342051</v>
       </c>
       <c r="C10" t="n">
-        <v>0.825509225819832</v>
+        <v>0.8255092262277827</v>
       </c>
     </row>
     <row r="11">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1109.080215097949</v>
+        <v>1109.080215232524</v>
       </c>
       <c r="C11" t="n">
-        <v>1.608378404964747e-10</v>
+        <v>1.608378395769957e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1003958176361128</v>
+        <v>-10.03958176322057</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02368477455348423</v>
+        <v>0.02368477456057215</v>
       </c>
     </row>
     <row r="13">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.288946440688826e-05</v>
+        <v>52.88946439204369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4054745370331463</v>
+        <v>0.4054745373005005</v>
       </c>
     </row>
     <row r="14">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.341711039382333</v>
+        <v>-2.341711039382163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6343868966554662</v>
+        <v>0.6343868966554901</v>
       </c>
     </row>
     <row r="15">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5403.813308233732</v>
+        <v>-54.03813308233729</v>
       </c>
       <c r="C15" t="n">
-        <v>2.996464048101269e-06</v>
+        <v>2.996464048101564e-06</v>
       </c>
     </row>
     <row r="16">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1682.541852312055</v>
+        <v>-16.82541852312069</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05483484727687248</v>
+        <v>0.05483484727687077</v>
       </c>
     </row>
   </sheetData>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3616.17126939083</v>
+        <v>3616.171269431011</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002803580003181662</v>
+        <v>0.002803580002515381</v>
       </c>
     </row>
     <row r="3">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>786.4912297373517</v>
+        <v>786.491229697484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1942654961068413</v>
+        <v>0.1942654961069311</v>
       </c>
     </row>
     <row r="4">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.7034359393624</v>
+        <v>335.7034358888085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5878393314272876</v>
+        <v>0.5878393314615578</v>
       </c>
     </row>
     <row r="5">
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.8659582491276</v>
+        <v>195.8659584972557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6321691977383227</v>
+        <v>0.6321691972949228</v>
       </c>
     </row>
     <row r="6">
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777.7949011192517</v>
+        <v>777.7949011458632</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0008451056043449484</v>
+        <v>0.0008451056039100194</v>
       </c>
     </row>
     <row r="7">
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.323720611020832</v>
+        <v>-6.323720615375287</v>
       </c>
       <c r="C7" t="n">
-        <v>0.933350873836992</v>
+        <v>0.933350873790969</v>
       </c>
     </row>
     <row r="8">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-707.1793884841114</v>
+        <v>-707.1793884648383</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004497901373295856</v>
+        <v>0.0004497901375214261</v>
       </c>
     </row>
     <row r="9">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-31.08247375908877</v>
+        <v>-31.08247375913257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001741330612399701</v>
+        <v>0.0001741330612347379</v>
       </c>
     </row>
     <row r="10">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.15703175530864</v>
+        <v>86.15703176123797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5487941007825654</v>
+        <v>0.5487941007548118</v>
       </c>
     </row>
     <row r="11">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.8503917998862</v>
+        <v>811.8503916776191</v>
       </c>
       <c r="C11" t="n">
-        <v>2.73164180140839e-06</v>
+        <v>2.731641811591238e-06</v>
       </c>
     </row>
     <row r="12">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.05193982949799434</v>
+        <v>-5.193982947615327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2450959166610779</v>
+        <v>0.2450959168766787</v>
       </c>
     </row>
     <row r="13">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.388760226410092e-06</v>
+        <v>-3.38876015250824</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9575800463951779</v>
+        <v>0.9575800473355081</v>
       </c>
     </row>
     <row r="14">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.947626216806214</v>
+        <v>4.947626216806162</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33300859606678</v>
+        <v>0.3330085960667859</v>
       </c>
     </row>
     <row r="15">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4717.817954672701</v>
+        <v>-47.17817954672675</v>
       </c>
       <c r="C15" t="n">
-        <v>4.007889190701156e-05</v>
+        <v>4.007889190701997e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1736.145252110852</v>
+        <v>-17.36145252110868</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04775011610416738</v>
+        <v>0.04775011610416612</v>
       </c>
     </row>
   </sheetData>
@@ -1852,10 +1852,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3856.809415181009</v>
+        <v>3856.809414123861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002817310680739984</v>
+        <v>0.002817310706588955</v>
       </c>
     </row>
     <row r="3">
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.748614988094</v>
+        <v>520.7486150046135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4730943306719858</v>
+        <v>0.4730943306719885</v>
       </c>
     </row>
     <row r="4">
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>374.618513495953</v>
+        <v>374.6185134936509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.613997624694558</v>
+        <v>0.6139976246952742</v>
       </c>
     </row>
     <row r="5">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.2197897625571</v>
+        <v>412.2197897332621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3379637002942103</v>
+        <v>0.3379637003313625</v>
       </c>
     </row>
     <row r="6">
@@ -1904,10 +1904,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>879.6569109966192</v>
+        <v>879.6569109763985</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002291633509406071</v>
+        <v>0.0002291633510612143</v>
       </c>
     </row>
     <row r="7">
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-42.00758224837911</v>
+        <v>-42.00758225310089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6070633389296518</v>
+        <v>0.6070633388866356</v>
       </c>
     </row>
     <row r="8">
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-481.8625267451365</v>
+        <v>-481.8625267529215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02207514120518023</v>
+        <v>0.02207514120265926</v>
       </c>
     </row>
     <row r="9">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.4040244487249</v>
+        <v>-37.40402444890795</v>
       </c>
       <c r="C9" t="n">
-        <v>2.285544836356915e-05</v>
+        <v>2.285544835959701e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-60.64391343566311</v>
+        <v>-60.64391346228913</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6847793079505213</v>
+        <v>0.6847793078192983</v>
       </c>
     </row>
     <row r="11">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1045.757003609471</v>
+        <v>1045.757003553146</v>
       </c>
       <c r="C11" t="n">
-        <v>5.354906334957609e-09</v>
+        <v>5.354906347508827e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1008054189754334</v>
+        <v>-10.08054189789218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02950590025831338</v>
+        <v>0.02950590025137833</v>
       </c>
     </row>
     <row r="13">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.177048084594768e-05</v>
+        <v>71.77048062993671</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2643922790480737</v>
+        <v>0.26439228049107</v>
       </c>
     </row>
     <row r="14">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.783581542057634</v>
+        <v>3.783581542057442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4624431471398524</v>
+        <v>0.4624431471398766</v>
       </c>
     </row>
     <row r="15">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5646.827001437743</v>
+        <v>-56.4682700143775</v>
       </c>
       <c r="C15" t="n">
-        <v>2.372364894503149e-06</v>
+        <v>2.372364894503364e-06</v>
       </c>
     </row>
     <row r="16">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1585.786466878526</v>
+        <v>-15.85786466878558</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07905939863703332</v>
+        <v>0.07905939863702874</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3483.100175669621</v>
+        <v>3483.100175287572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009185475389224299</v>
+        <v>0.009185475405465151</v>
       </c>
     </row>
     <row r="3">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1024.236379159908</v>
+        <v>1024.236379300336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1781590737135907</v>
+        <v>0.1781590737135849</v>
       </c>
     </row>
     <row r="4">
@@ -2109,10 +2109,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>621.3817420467</v>
+        <v>621.3817422069556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4213050183115752</v>
+        <v>0.4213050182603595</v>
       </c>
     </row>
     <row r="5">
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.7056747565512</v>
+        <v>707.7056744260567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1105820198417611</v>
+        <v>0.110582020017628</v>
       </c>
     </row>
     <row r="6">
@@ -2135,10 +2135,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1155.192990910766</v>
+        <v>1155.192990901719</v>
       </c>
       <c r="C6" t="n">
-        <v>1.374914358992704e-06</v>
+        <v>1.374914359285222e-06</v>
       </c>
     </row>
     <row r="7">
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6437395570705533</v>
+        <v>0.6437395318915975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9937824771713358</v>
+        <v>0.9937824774144715</v>
       </c>
     </row>
     <row r="8">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-701.3102672931529</v>
+        <v>-701.3102672740876</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009202619858404785</v>
+        <v>0.0009202619861728695</v>
       </c>
     </row>
     <row r="9">
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-32.67767051779207</v>
+        <v>-32.677670517587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001872595539265491</v>
+        <v>0.0001872595539493397</v>
       </c>
     </row>
     <row r="10">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.11085735104586</v>
+        <v>63.11085738757812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6782620963249292</v>
+        <v>0.6782620961480474</v>
       </c>
     </row>
     <row r="11">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>961.9886289405116</v>
+        <v>961.9886291228365</v>
       </c>
       <c r="C11" t="n">
-        <v>3.008500382837288e-07</v>
+        <v>3.008500368570248e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09392227640172751</v>
+        <v>-9.392227637146327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04240885847491895</v>
+        <v>0.04240885854897456</v>
       </c>
     </row>
     <row r="13">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.420548241815306e-05</v>
+        <v>44.20548252912127</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5069698323091141</v>
+        <v>0.5069698311653692</v>
       </c>
     </row>
     <row r="14">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.696974454562536</v>
+        <v>1.696974454562622</v>
       </c>
       <c r="C14" t="n">
-        <v>0.763350533676924</v>
+        <v>0.7633505336769131</v>
       </c>
     </row>
     <row r="15">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5155.953593363753</v>
+        <v>-51.55953593363742</v>
       </c>
       <c r="C15" t="n">
-        <v>2.500510377957042e-05</v>
+        <v>2.500510377957086e-05</v>
       </c>
     </row>
     <row r="16">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2062.21272792118</v>
+        <v>-20.62212727921194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02778757372914829</v>
+        <v>0.02778757372914722</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1886.150052577718</v>
+        <v>1886.150052374174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1395406576401887</v>
+        <v>0.139540657807938</v>
       </c>
     </row>
     <row r="3">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.4787912439915</v>
+        <v>205.4787912168506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7715773777406207</v>
+        <v>0.7715773777406543</v>
       </c>
     </row>
     <row r="4">
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.3664417661779</v>
+        <v>142.3664417387911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8438261272690801</v>
+        <v>0.8438261272794956</v>
       </c>
     </row>
     <row r="5">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.2154734264831</v>
+        <v>589.2154734272951</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1674135378010897</v>
+        <v>0.1674135378003226</v>
       </c>
     </row>
     <row r="6">
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>845.8870729512702</v>
+        <v>845.8870729546945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000237802281444925</v>
+        <v>0.0002378022814122999</v>
       </c>
     </row>
     <row r="7">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-47.41043974609579</v>
+        <v>-47.41043975200864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5462478383763699</v>
+        <v>0.5462478383131115</v>
       </c>
     </row>
     <row r="8">
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-755.7698578861749</v>
+        <v>-755.7698578915974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001833027299480323</v>
+        <v>0.000183302729906947</v>
       </c>
     </row>
     <row r="9">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-27.35097291350321</v>
+        <v>-27.35097291365171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001026684255082125</v>
+        <v>0.001026684254943902</v>
       </c>
     </row>
     <row r="10">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.2617355928579</v>
+        <v>325.2617355715212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02382068947849691</v>
+        <v>0.02382068949166371</v>
       </c>
     </row>
     <row r="11">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1118.544199757259</v>
+        <v>1118.54419974427</v>
       </c>
       <c r="C11" t="n">
-        <v>3.210004022995017e-10</v>
+        <v>3.210004026235736e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07024446792059924</v>
+        <v>-7.024446792572154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1162836893031819</v>
+        <v>0.116283689259786</v>
       </c>
     </row>
     <row r="13">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.330605337677255e-05</v>
+        <v>43.30605317783006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5006104279550985</v>
+        <v>0.5006104296565933</v>
       </c>
     </row>
     <row r="14">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.259166687347246</v>
+        <v>2.259166687347435</v>
       </c>
       <c r="C14" t="n">
-        <v>0.670998094650895</v>
+        <v>0.6709980946508711</v>
       </c>
     </row>
     <row r="15">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3633.062851689901</v>
+        <v>-36.33062851689883</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001693301414397341</v>
+        <v>0.001693301414397469</v>
       </c>
     </row>
     <row r="16">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-95.97085810534736</v>
+        <v>-0.9597085810532242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9138688116076654</v>
+        <v>0.9138688116076874</v>
       </c>
     </row>
   </sheetData>
